--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koyama\Documents\ECbook\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuSu\Desktop\ECBook\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル" sheetId="1" r:id="rId1"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NUMBER(11)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR(255)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -263,24 +259,27 @@
   <si>
     <t>NUMBER(8)</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -595,20 +594,20 @@
   <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:11">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -628,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -637,10 +636,10 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -654,10 +653,10 @@
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -665,29 +664,29 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="2:11">
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -695,10 +694,10 @@
         <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -709,7 +708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:11">
       <c r="C9" t="s">
         <v>13</v>
       </c>
@@ -720,9 +719,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -740,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -749,37 +748,37 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="C14" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -797,9 +796,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>17</v>
       </c>

--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル" sheetId="1" r:id="rId1"/>
     <sheet name="順序" sheetId="2" r:id="rId2"/>
+    <sheet name="INDEX" sheetId="3" r:id="rId3"/>
+    <sheet name="gomen" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -77,10 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pass</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -108,22 +106,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NUMBER(10)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_id_seq</t>
-  </si>
-  <si>
-    <t>user_id_seq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -161,14 +144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NUMBER(11)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハッシュ化した値を入れる。とりあえず大きめに取っておく。</t>
     <rPh sb="4" eb="5">
       <t>カ</t>
@@ -189,13 +164,6 @@
   </si>
   <si>
     <t>足りる？</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>足りる？</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -206,16 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>絶対足りる。</t>
-    <rPh sb="0" eb="2">
-      <t>ゼッタイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NOT NULL?</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -229,10 +187,6 @@
   </si>
   <si>
     <t>book_price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NUMBER(100)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -261,7 +215,294 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NUMBER(8)</t>
+    <t>NUMBER(7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_kind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_isbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLOB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑誌、専門書、コミック、小説、児童向け、外国書、成人向け</t>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(book_tag)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLOB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CONSTRAINT json_tag_chk CHECK(doc IS JSON)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE SEARCH INDEX json_tag_idx ON EBBOOK(book_tag) FOR JSON;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBADDRESS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/plusultra/items/377d810a6191ffe20045</t>
+  </si>
+  <si>
+    <t>JSONのSELECT文とか</t>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBMANAGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBCART</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fowarding_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receiver_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postal_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(9)</t>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noimage画像</t>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+  </si>
+  <si>
+    <t>EBUSER.ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(150)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(11)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forward_id_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送り先ID</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送り先電話番号</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送り先住所</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送り先郵便番号</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBCREDIT</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>card_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>card_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複する場合例外キャッチして再入力求める。使える文字限定</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>サイニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(11)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(13)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(12)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -269,7 +510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +521,28 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -303,17 +566,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K14"/>
+  <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -603,12 +879,12 @@
     <col min="3" max="3" width="10.58203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="29.33203125" customWidth="1"/>
+    <col min="8" max="9" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -628,158 +904,484 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="34" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
         <v>22</v>
       </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="I27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D38" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E38" t="s">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F38" t="s">
         <v>4</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G38" t="s">
         <v>5</v>
       </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
         <v>6</v>
       </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" t="s">
-        <v>39</v>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -790,6 +1392,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
@@ -800,12 +1417,39 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
-        <v>17</v>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル" sheetId="1" r:id="rId1"/>
     <sheet name="順序" sheetId="2" r:id="rId2"/>
     <sheet name="INDEX" sheetId="3" r:id="rId3"/>
-    <sheet name="gomen" sheetId="4" r:id="rId4"/>
+    <sheet name="json参考" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mail</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -127,23 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NUMBER(8)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20191101=2019年11月01日</t>
-    <rPh sb="13" eb="14">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハッシュ化した値を入れる。とりあえず大きめに取っておく。</t>
     <rPh sb="4" eb="5">
       <t>カ</t>
@@ -288,10 +267,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EBMANAGER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EBCART</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -317,13 +292,6 @@
   </si>
   <si>
     <t>tel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NUMBER(9)</t>
-  </si>
-  <si>
-    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -372,10 +340,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NUMBER(11)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>forward_id_seq</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -483,26 +447,131 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>VARCHAR2(13)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(12)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>VARCHAR2(11)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR2(13)</t>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>books</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLOB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CONSTRAINT cart_chk CHECK(doc IS JSON)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{商品ID:個数,…}</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOOKREVIEW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>VARCHAR2(100)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(12)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBUSER.ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBBOOK.BOOK_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_star</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１から５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューした時間</t>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOOKREVIEW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(4000)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -868,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L39"/>
+  <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -904,19 +973,19 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -924,13 +993,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -938,13 +1007,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -952,10 +1021,13 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -963,13 +1035,13 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>56</v>
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -977,411 +1049,524 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" t="s">
-        <v>59</v>
-      </c>
       <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
         <v>27</v>
       </c>
-      <c r="L11" t="s">
-        <v>28</v>
+      <c r="H11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>58</v>
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="34" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="34" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="K17" t="s">
-        <v>42</v>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" t="s">
-        <v>70</v>
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" t="s">
-        <v>56</v>
+      <c r="L22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s">
         <v>53</v>
       </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
         <v>56</v>
       </c>
-      <c r="L24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
       <c r="E27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" t="s">
-        <v>56</v>
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" t="s">
         <v>82</v>
       </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" t="s">
+        <v>84</v>
+      </c>
+      <c r="L33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" t="s">
-        <v>84</v>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
       <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D42" t="s">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E42" t="s">
         <v>3</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F42" t="s">
         <v>4</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G42" t="s">
         <v>5</v>
       </c>
-      <c r="H38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>53</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" t="s">
         <v>6</v>
       </c>
-      <c r="L38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" t="s">
-        <v>6</v>
-      </c>
-      <c r="L39" t="s">
-        <v>21</v>
+      <c r="L42" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1395,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G11" sqref="G8:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1418,7 +1603,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1439,10 +1624,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="116">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -411,10 +411,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NUMBER(10)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR2(100)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -567,11 +563,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BOOKREVIEW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR2(4000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBSALES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sales_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sysdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sales_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBUSER.ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sales_id_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>card_id_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forwarding_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBADDRESS.forwarding_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これあればuser_idいらないが…</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -937,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L42"/>
+  <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -993,13 +1045,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1049,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
         <v>51</v>
@@ -1159,7 +1211,7 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
         <v>58</v>
@@ -1219,7 +1271,7 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -1236,7 +1288,7 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
         <v>57</v>
@@ -1289,7 +1341,7 @@
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s">
         <v>51</v>
@@ -1343,19 +1395,22 @@
       <c r="E27" t="s">
         <v>51</v>
       </c>
+      <c r="J27" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
         <v>57</v>
       </c>
       <c r="H28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1363,10 +1418,10 @@
         <v>69</v>
       </c>
       <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
         <v>75</v>
-      </c>
-      <c r="H29" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1406,35 +1461,38 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="F32" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
         <v>82</v>
       </c>
-      <c r="D33" t="s">
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" t="s">
         <v>83</v>
       </c>
-      <c r="H33" t="s">
-        <v>80</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>84</v>
-      </c>
-      <c r="L33" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1469,69 +1527,69 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" t="s">
         <v>89</v>
-      </c>
-      <c r="E37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" t="s">
         <v>94</v>
       </c>
-      <c r="D40" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" t="s">
-        <v>95</v>
-      </c>
       <c r="L40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1567,6 +1625,76 @@
       </c>
       <c r="L42" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>83</v>
+      </c>
+      <c r="L45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="I46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" t="s">
+        <v>112</v>
+      </c>
+      <c r="L47" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="133">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -214,26 +214,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>book_kind</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>book_isbn</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>BLOB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NUMBER(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雑誌、専門書、コミック、小説、児童向け、外国書、成人向け</t>
-    <rPh sb="5" eb="6">
-      <t>ショ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -624,6 +609,86 @@
   </si>
   <si>
     <t>これあればuser_idいらないが…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pay_method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(36)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smallあればわかるが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBGENRE_S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>small_genre_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>large_genre_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBGENRE_L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>large_genre_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>small_genre_id_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>large_genre_id_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(36)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -631,7 +696,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,13 +711,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="游明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="8"/>
@@ -691,21 +749,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -989,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L47"/>
+  <dimension ref="B2:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1028,7 +1083,7 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -1045,13 +1100,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1062,7 +1117,7 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -1076,7 +1131,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -1101,10 +1156,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1130,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -1167,7 +1222,7 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1186,313 +1241,247 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="34" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="K16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>4</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>5</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>19</v>
       </c>
-      <c r="I18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
         <v>12</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K19" t="s">
         <v>6</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" t="s">
-        <v>51</v>
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" t="s">
         <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="L28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L31" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>107</v>
+        <v>54</v>
+      </c>
+      <c r="H32" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H33" t="s">
-        <v>79</v>
-      </c>
-      <c r="K33" t="s">
-        <v>83</v>
-      </c>
-      <c r="L33" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1513,7 +1502,7 @@
         <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1527,174 +1516,370 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37" t="s">
         <v>80</v>
       </c>
-      <c r="D37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" t="s">
-        <v>79</v>
+      <c r="L37" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>87</v>
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" t="s">
+        <v>6</v>
       </c>
       <c r="L39" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
         <v>97</v>
       </c>
-      <c r="I40" t="s">
-        <v>94</v>
-      </c>
-      <c r="L40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" t="s">
-        <v>53</v>
-      </c>
-      <c r="J42" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" t="s">
-        <v>6</v>
-      </c>
-      <c r="L42" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" t="s">
-        <v>106</v>
-      </c>
-      <c r="J43" t="s">
-        <v>108</v>
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" t="s">
+        <v>84</v>
+      </c>
+      <c r="L43" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" t="s">
-        <v>83</v>
-      </c>
-      <c r="L45" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="I44" t="s">
+        <v>91</v>
+      </c>
+      <c r="L44" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>19</v>
       </c>
       <c r="I46" t="s">
-        <v>104</v>
+        <v>50</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s">
+        <v>80</v>
+      </c>
+      <c r="L49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="I50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" t="s">
+        <v>108</v>
+      </c>
+      <c r="H51" t="s">
+        <v>109</v>
+      </c>
+      <c r="L51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J54" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" t="s">
+        <v>118</v>
+      </c>
+      <c r="J55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
+        <v>50</v>
+      </c>
+      <c r="J59" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" t="s">
+        <v>72</v>
+      </c>
+      <c r="J60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" t="s">
         <v>114</v>
-      </c>
-      <c r="F47" t="s">
-        <v>111</v>
-      </c>
-      <c r="H47" t="s">
-        <v>112</v>
-      </c>
-      <c r="L47" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1730,8 +1915,8 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="2" t="s">
-        <v>40</v>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1752,10 +1937,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="181">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>book_price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -177,19 +173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>絶対足りる。足りるよね？</t>
-    <rPh sb="0" eb="2">
-      <t>ゼッタイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>book_count</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -214,23 +197,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>book_isbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BLOB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(book_tag)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CLOB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CONSTRAINT json_tag_chk CHECK(doc IS JSON)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -272,10 +239,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tel</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -309,19 +272,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR2(30)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>NUMBER(7)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR2(150)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -355,19 +310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>送り先住所</t>
-    <rPh sb="0" eb="1">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>送り先郵便番号</t>
     <rPh sb="0" eb="1">
       <t>オク</t>
@@ -640,10 +582,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>genre_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -664,10 +602,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>genre_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>small_genre_id_seq</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -689,6 +623,343 @@
   </si>
   <si>
     <t>VARCHAR2(36)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>small_genre_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>large_genre_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード決済'</t>
+    <rPh sb="4" eb="6">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISBN_DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_isbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_isbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(13)</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_json</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CONSTRAINT book_json_chk CHECK(doc IS JSON)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここから書名とか探す</t>
+    <rPh sb="4" eb="6">
+      <t>ショメイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address_prefecture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送り先住所、県</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address_city</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区市町村</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>シチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address_address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番地</t>
+    <rPh sb="0" eb="2">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address_apartment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>建物名、部屋番号</t>
+    <rPh sb="0" eb="2">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(40)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(9)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(60)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(90)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>release_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルへのパスかISBNから取得したURI</t>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISBN_DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISBN_DATA.book_isbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBARRIVALS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrival_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入荷ID</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrival_id_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBBOOK.book_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrival_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正の値</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正の値、同時にEBBOOKのbook_countを変更する</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrival_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入れ値、一冊あたりの仕入れ値はarrival_countで割ることで求める</t>
+    <rPh sb="0" eb="2">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッサツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複していい値。ログイン後表示する</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -753,7 +1024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,6 +1032,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L61"/>
+  <dimension ref="B2:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1083,7 +1357,7 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -1100,786 +1374,1105 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" t="s">
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
         <v>12</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>6</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
+      <c r="J11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="L12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" t="s">
-        <v>118</v>
-      </c>
-      <c r="L16" t="s">
-        <v>117</v>
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" t="s">
-        <v>60</v>
+        <v>151</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" t="s">
-        <v>62</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="L30" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-      <c r="J31" t="s">
-        <v>106</v>
+        <v>147</v>
+      </c>
+      <c r="H31" t="s">
+        <v>139</v>
+      </c>
+      <c r="L31" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>140</v>
+      </c>
+      <c r="L32" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" t="s">
         <v>41</v>
       </c>
-      <c r="C35" t="s">
+      <c r="L34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>2</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>3</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>4</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>5</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>19</v>
       </c>
-      <c r="I35" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" t="s">
         <v>12</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K36" t="s">
         <v>6</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L36" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37" t="s">
-        <v>80</v>
-      </c>
-      <c r="L37" t="s">
-        <v>81</v>
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
       <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>2</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
         <v>3</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F41" t="s">
         <v>4</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G41" t="s">
         <v>5</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H41" t="s">
         <v>19</v>
       </c>
-      <c r="I39" t="s">
-        <v>50</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="I41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s">
         <v>12</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K41" t="s">
         <v>6</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L41" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
-      </c>
-      <c r="H42" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="E42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>66</v>
+      </c>
+      <c r="K43" t="s">
+        <v>70</v>
       </c>
       <c r="L43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C44" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" t="s">
-        <v>94</v>
-      </c>
-      <c r="I44" t="s">
-        <v>91</v>
-      </c>
-      <c r="L44" t="s">
-        <v>96</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="F46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" t="s">
-        <v>50</v>
-      </c>
-      <c r="J46" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" t="s">
-        <v>6</v>
-      </c>
-      <c r="L46" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" t="s">
-        <v>102</v>
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>75</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
-      </c>
-      <c r="J47" t="s">
-        <v>105</v>
+        <v>74</v>
+      </c>
+      <c r="F47" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" t="s">
-        <v>103</v>
-      </c>
-      <c r="F48" t="s">
-        <v>104</v>
+        <v>87</v>
+      </c>
+      <c r="H48" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L49" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="I50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" t="s">
-        <v>111</v>
-      </c>
-      <c r="F51" t="s">
-        <v>108</v>
-      </c>
-      <c r="H51" t="s">
-        <v>109</v>
-      </c>
-      <c r="L51" t="s">
-        <v>112</v>
+        <v>81</v>
+      </c>
+      <c r="L50" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>43</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" t="s">
+        <v>93</v>
+      </c>
+      <c r="J53" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" t="s">
-        <v>119</v>
-      </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" t="s">
-        <v>50</v>
-      </c>
-      <c r="J54" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" t="s">
-        <v>6</v>
-      </c>
-      <c r="L54" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>129</v>
-      </c>
-      <c r="E55" t="s">
-        <v>118</v>
-      </c>
-      <c r="J55" t="s">
-        <v>127</v>
+        <v>69</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s">
+        <v>70</v>
+      </c>
+      <c r="L55" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>90</v>
+      </c>
+      <c r="I56" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>121</v>
+        <v>98</v>
+      </c>
+      <c r="H57" t="s">
+        <v>99</v>
+      </c>
+      <c r="L57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" t="s">
+        <v>124</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" t="s">
         <v>1</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>2</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>3</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>4</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G60" t="s">
         <v>5</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H60" t="s">
         <v>19</v>
       </c>
-      <c r="I59" t="s">
-        <v>50</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="I60" t="s">
+        <v>43</v>
+      </c>
+      <c r="J60" t="s">
         <v>12</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K60" t="s">
         <v>6</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L60" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C60" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" t="s">
-        <v>130</v>
-      </c>
-      <c r="E60" t="s">
-        <v>72</v>
-      </c>
-      <c r="J60" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J61" t="s">
+        <v>169</v>
+      </c>
+      <c r="L61" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" t="s">
+        <v>42</v>
+      </c>
+      <c r="L62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" t="s">
+        <v>41</v>
+      </c>
+      <c r="J63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" t="s">
+        <v>172</v>
+      </c>
+      <c r="H64" t="s">
+        <v>41</v>
+      </c>
+      <c r="L64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" t="s">
+        <v>108</v>
+      </c>
+      <c r="J67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" t="s">
+        <v>120</v>
+      </c>
+      <c r="H68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s">
+        <v>43</v>
+      </c>
+      <c r="J71" t="s">
+        <v>12</v>
+      </c>
+      <c r="K71" t="s">
+        <v>6</v>
+      </c>
+      <c r="L71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C72" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" t="s">
+        <v>62</v>
+      </c>
+      <c r="J72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73" t="s">
+        <v>122</v>
+      </c>
+      <c r="D73" t="s">
+        <v>104</v>
+      </c>
+      <c r="H73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" t="s">
         <v>126</v>
       </c>
-      <c r="D61" t="s">
-        <v>114</v>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s">
+        <v>43</v>
+      </c>
+      <c r="J75" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" t="s">
+        <v>6</v>
+      </c>
+      <c r="L75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C76" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" t="s">
+        <v>131</v>
+      </c>
+      <c r="K77" t="s">
+        <v>133</v>
+      </c>
+      <c r="L77" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1916,7 +2509,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1937,10 +2530,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -18,6 +18,7 @@
     <sheet name="json参考" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="188">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -197,10 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CLOB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CREATE SEARCH INDEX json_tag_idx ON EBBOOK(book_tag) FOR JSON;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -258,13 +255,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>noimage画像</t>
-    <rPh sb="7" eb="9">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NUMBER(10)</t>
   </si>
   <si>
@@ -427,14 +417,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BOOKREVIEW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>book_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -578,10 +560,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EBGENRE_S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -649,43 +627,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ISBN_DATA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>book_isbn</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>book_isbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR2(13)</t>
-  </si>
-  <si>
     <t>〇</t>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>book_json</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CONSTRAINT book_json_chk CHECK(doc IS JSON)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここから書名とか探す</t>
-    <rPh sb="4" eb="6">
-      <t>ショメイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サガ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -845,10 +794,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EBARRIVALS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>arrival_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -943,10 +888,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>重複していい値。ログイン後表示する</t>
     <rPh sb="0" eb="2">
       <t>チョウフク</t>
@@ -960,6 +901,98 @@
     <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBGENRE_S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミック、ライトノベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBARRIVAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBPRODUCT</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>product_id_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBFAVORITE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBPRODUCT.ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正の値</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBPRODUCT_REF</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRODUCT_REVIEW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>series</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1318,14 +1351,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L77"/>
+  <dimension ref="B2:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="2" max="2" width="17.08203125" customWidth="1"/>
     <col min="3" max="3" width="10.58203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
@@ -1357,7 +1391,7 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -1374,27 +1408,27 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="L4" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1405,7 +1439,7 @@
         <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -1419,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -1444,15 +1478,15 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1473,7 +1507,7 @@
         <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -1487,309 +1521,309 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>173</v>
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" t="s">
-        <v>161</v>
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="L14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
         <v>130</v>
       </c>
-      <c r="L15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
       <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" t="s">
-        <v>74</v>
+        <v>40</v>
+      </c>
+      <c r="L19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H22" t="s">
-        <v>160</v>
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
-      </c>
-      <c r="H23" t="s">
-        <v>160</v>
+        <v>26</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" t="s">
-        <v>50</v>
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" t="s">
+        <v>122</v>
       </c>
       <c r="L26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L29" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L30" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H31" t="s">
-        <v>139</v>
-      </c>
-      <c r="L31" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
-      </c>
-      <c r="H32" t="s">
-        <v>140</v>
-      </c>
-      <c r="L32" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1797,682 +1831,743 @@
         <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
-      </c>
-      <c r="L34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>2</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E38" t="s">
         <v>3</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F38" t="s">
         <v>4</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G38" t="s">
         <v>5</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H38" t="s">
         <v>19</v>
       </c>
-      <c r="I36" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="I38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" t="s">
         <v>12</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K38" t="s">
         <v>6</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L38" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
         <v>61</v>
       </c>
-      <c r="H39" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" t="s">
-        <v>35</v>
-      </c>
       <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" t="s">
         <v>1</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>2</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E43" t="s">
         <v>3</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F43" t="s">
         <v>4</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G43" t="s">
         <v>5</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H43" t="s">
         <v>19</v>
       </c>
-      <c r="I41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="I43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" t="s">
         <v>12</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K43" t="s">
         <v>6</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" t="s">
-        <v>66</v>
-      </c>
-      <c r="K43" t="s">
-        <v>70</v>
-      </c>
-      <c r="L43" t="s">
-        <v>71</v>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" t="s">
+        <v>175</v>
+      </c>
+      <c r="J44" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" t="s">
-        <v>72</v>
-      </c>
       <c r="C45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" t="s">
+        <v>175</v>
+      </c>
+      <c r="L45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" t="s">
         <v>1</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>2</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E47" t="s">
         <v>3</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F47" t="s">
         <v>4</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G47" t="s">
         <v>5</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H47" t="s">
         <v>19</v>
       </c>
-      <c r="I45" t="s">
-        <v>43</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="I47" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s">
         <v>12</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K47" t="s">
         <v>6</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L47" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
-      </c>
-      <c r="H48" t="s">
-        <v>66</v>
+        <v>174</v>
+      </c>
+      <c r="E48" t="s">
+        <v>175</v>
+      </c>
+      <c r="J48" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" t="s">
-        <v>83</v>
-      </c>
-      <c r="H49" t="s">
-        <v>74</v>
-      </c>
-      <c r="L49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" t="s">
-        <v>84</v>
-      </c>
-      <c r="I50" t="s">
-        <v>81</v>
-      </c>
-      <c r="L50" t="s">
-        <v>86</v>
+        <v>177</v>
+      </c>
+      <c r="E49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J51" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="F52" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" t="s">
-        <v>43</v>
-      </c>
-      <c r="J52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" t="s">
-        <v>6</v>
-      </c>
-      <c r="L52" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" t="s">
-        <v>93</v>
-      </c>
-      <c r="J53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54" t="s">
-        <v>94</v>
-      </c>
-      <c r="H54" t="s">
-        <v>130</v>
+        <v>179</v>
+      </c>
+      <c r="F53" t="s">
+        <v>180</v>
+      </c>
+      <c r="H53" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" t="s">
-        <v>69</v>
-      </c>
-      <c r="H55" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" t="s">
-        <v>70</v>
-      </c>
-      <c r="L55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C56" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I56" t="s">
-        <v>91</v>
+      <c r="B55" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" t="s">
+        <v>185</v>
+      </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>101</v>
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>98</v>
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>99</v>
+        <v>19</v>
+      </c>
+      <c r="I57" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" t="s">
+        <v>6</v>
       </c>
       <c r="L57" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>125</v>
+        <v>78</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="I59" s="3"/>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" t="s">
-        <v>165</v>
-      </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" t="s">
-        <v>43</v>
-      </c>
-      <c r="J60" t="s">
-        <v>12</v>
-      </c>
-      <c r="K60" t="s">
-        <v>6</v>
-      </c>
-      <c r="L60" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J61" t="s">
-        <v>169</v>
+        <v>79</v>
+      </c>
+      <c r="H61" t="s">
+        <v>70</v>
       </c>
       <c r="L61" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s">
+        <v>77</v>
+      </c>
+      <c r="L62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s">
         <v>42</v>
       </c>
-      <c r="L62" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" t="s">
-        <v>170</v>
-      </c>
-      <c r="H63" t="s">
-        <v>41</v>
-      </c>
-      <c r="J63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C64" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" t="s">
-        <v>172</v>
-      </c>
-      <c r="H64" t="s">
-        <v>41</v>
+      <c r="J64" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" t="s">
+        <v>6</v>
       </c>
       <c r="L64" t="s">
-        <v>174</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" t="s">
+        <v>89</v>
+      </c>
+      <c r="J65" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" t="s">
-        <v>109</v>
-      </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="F66" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" t="s">
-        <v>43</v>
-      </c>
-      <c r="J66" t="s">
-        <v>12</v>
-      </c>
-      <c r="K66" t="s">
-        <v>6</v>
-      </c>
-      <c r="L66" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
-      </c>
-      <c r="E67" t="s">
-        <v>108</v>
-      </c>
-      <c r="J67" t="s">
-        <v>115</v>
+        <v>67</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" t="s">
+        <v>68</v>
+      </c>
+      <c r="L67" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D68" t="s">
-        <v>120</v>
-      </c>
-      <c r="H68" t="s">
-        <v>130</v>
+        <v>86</v>
+      </c>
+      <c r="I68" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" t="s">
+        <v>94</v>
+      </c>
+      <c r="H69" t="s">
+        <v>95</v>
+      </c>
+      <c r="L69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C70" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" t="s">
         <v>119</v>
       </c>
-      <c r="F69" t="s">
-        <v>110</v>
+      <c r="I70" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" t="s">
         <v>1</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>2</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>3</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F72" t="s">
         <v>4</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G72" t="s">
         <v>5</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H72" t="s">
         <v>19</v>
       </c>
-      <c r="I71" t="s">
-        <v>43</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="I72" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" t="s">
         <v>12</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K72" t="s">
         <v>6</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L72" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C72" t="s">
-        <v>114</v>
-      </c>
-      <c r="D72" t="s">
-        <v>118</v>
-      </c>
-      <c r="E72" t="s">
-        <v>62</v>
-      </c>
-      <c r="J72" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
-      </c>
-      <c r="H73" t="s">
-        <v>131</v>
+        <v>156</v>
+      </c>
+      <c r="E73" t="s">
+        <v>40</v>
+      </c>
+      <c r="J73" t="s">
+        <v>157</v>
+      </c>
+      <c r="L73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C74" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" t="s">
+        <v>41</v>
+      </c>
+      <c r="L74" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" t="s">
-        <v>126</v>
-      </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>4</v>
-      </c>
-      <c r="G75" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J75" t="s">
-        <v>12</v>
-      </c>
-      <c r="K75" t="s">
-        <v>6</v>
-      </c>
-      <c r="L75" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
-      </c>
-      <c r="E76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C77" t="s">
-        <v>132</v>
-      </c>
-      <c r="D77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" t="s">
-        <v>131</v>
-      </c>
-      <c r="K77" t="s">
-        <v>133</v>
-      </c>
-      <c r="L77" t="s">
-        <v>134</v>
+        <v>160</v>
+      </c>
+      <c r="H76" t="s">
+        <v>40</v>
+      </c>
+      <c r="L76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>42</v>
+      </c>
+      <c r="J78" t="s">
+        <v>12</v>
+      </c>
+      <c r="K78" t="s">
+        <v>6</v>
+      </c>
+      <c r="L78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C79" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E79" t="s">
+        <v>104</v>
+      </c>
+      <c r="J79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" t="s">
+        <v>115</v>
+      </c>
+      <c r="H80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" t="s">
+        <v>114</v>
+      </c>
+      <c r="F81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s">
+        <v>42</v>
+      </c>
+      <c r="J83" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" t="s">
+        <v>6</v>
+      </c>
+      <c r="L83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C84" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" t="s">
+        <v>60</v>
+      </c>
+      <c r="J84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C85" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" t="s">
+        <v>100</v>
+      </c>
+      <c r="H85" t="s">
+        <v>123</v>
+      </c>
+      <c r="L85" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2509,7 +2604,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2530,10 +2625,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -18,7 +18,6 @@
     <sheet name="json参考" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="215">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -711,10 +710,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR2(40)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR2(9)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -993,6 +988,220 @@
   </si>
   <si>
     <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>audience</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本在庫</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本データ</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送り先</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品価格</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品に含まれる本</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートに含まれる商品</t>
+    <rPh sb="4" eb="5">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りリストに含まれる商品</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売情報</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入れ情報</t>
+    <rPh sb="0" eb="2">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小ジャンル</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大ジャンル</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openbdのデータ仕様　https://openbd.jp/spec/</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書名</t>
+    <rPh sb="0" eb="2">
+      <t>ショメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出版社名</t>
+    <rPh sb="0" eb="2">
+      <t>シュッパン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリーズ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第何巻？</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ナンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著者</t>
+    <rPh sb="0" eb="2">
+      <t>チョシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出版日</t>
+    <rPh sb="0" eb="3">
+      <t>シュッパンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBBOOK.ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(400)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1000,7 +1209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1031,6 +1240,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1057,7 +1274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1068,6 +1285,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1351,21 +1571,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L85"/>
+  <dimension ref="B2:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="17.08203125" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="8" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="12" max="12" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" customWidth="1"/>
+    <col min="12" max="12" width="61.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1404,6 +1628,9 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -1419,16 +1646,16 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
         <v>165</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" t="s">
         <v>166</v>
-      </c>
-      <c r="H4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1520,6 +1747,9 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
@@ -1580,7 +1810,7 @@
         <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" t="s">
         <v>40</v>
@@ -1594,7 +1824,7 @@
         <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
         <v>128</v>
@@ -1608,7 +1838,7 @@
         <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H17" t="s">
         <v>129</v>
@@ -1622,7 +1852,7 @@
         <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
@@ -1681,6 +1911,9 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
@@ -1705,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1713,10 +1946,10 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1727,7 +1960,7 @@
         <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H25" t="s">
         <v>40</v>
@@ -1752,7 +1985,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -1786,6 +2019,9 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" t="s">
+        <v>189</v>
+      </c>
       <c r="C29" t="s">
         <v>121</v>
       </c>
@@ -1793,67 +2029,99 @@
         <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="L29" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H30" t="s">
         <v>70</v>
       </c>
+      <c r="L30" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H31" t="s">
         <v>70</v>
       </c>
+      <c r="L31" s="4" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" t="s">
         <v>186</v>
       </c>
-      <c r="D32" t="s">
-        <v>187</v>
+      <c r="L32" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
         <v>143</v>
       </c>
-      <c r="D33" t="s">
-        <v>144</v>
+      <c r="L33" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H34" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="L34" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" t="s">
         <v>147</v>
       </c>
-      <c r="D35" t="s">
+      <c r="H35" t="s">
         <v>148</v>
       </c>
-      <c r="H35" t="s">
-        <v>149</v>
+      <c r="L35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" t="s">
+        <v>210</v>
+      </c>
+      <c r="L36" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1892,6 +2160,9 @@
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
       <c r="C39" t="s">
         <v>53</v>
       </c>
@@ -1932,7 +2203,7 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -1966,36 +2237,39 @@
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" t="s">
+        <v>193</v>
+      </c>
       <c r="C44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" t="s">
         <v>173</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>174</v>
       </c>
-      <c r="E44" t="s">
+      <c r="J44" t="s">
         <v>175</v>
-      </c>
-      <c r="J44" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" t="s">
         <v>181</v>
       </c>
-      <c r="D45" t="s">
+      <c r="H45" t="s">
+        <v>174</v>
+      </c>
+      <c r="L45" t="s">
         <v>182</v>
-      </c>
-      <c r="H45" t="s">
-        <v>175</v>
-      </c>
-      <c r="L45" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -2029,25 +2303,31 @@
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" t="s">
+        <v>194</v>
+      </c>
       <c r="C48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" t="s">
         <v>173</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>174</v>
       </c>
-      <c r="E48" t="s">
+      <c r="J48" t="s">
         <v>175</v>
-      </c>
-      <c r="J48" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E49" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="F49" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2086,488 +2366,567 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" t="s">
+        <v>195</v>
+      </c>
       <c r="C52" t="s">
         <v>65</v>
       </c>
       <c r="D52" t="s">
         <v>71</v>
       </c>
+      <c r="E52" t="s">
+        <v>212</v>
+      </c>
       <c r="F52" t="s">
         <v>90</v>
       </c>
-      <c r="H52" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" t="s">
+        <v>212</v>
+      </c>
+      <c r="F53" t="s">
         <v>179</v>
-      </c>
-      <c r="F53" t="s">
-        <v>180</v>
-      </c>
-      <c r="H53" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" t="s">
+        <v>213</v>
+      </c>
+      <c r="F56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" t="s">
+        <v>212</v>
+      </c>
+      <c r="F57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" t="s">
-        <v>42</v>
-      </c>
-      <c r="J57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K57" t="s">
-        <v>6</v>
-      </c>
-      <c r="L57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C58" t="s">
-        <v>179</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="D60" t="s">
         <v>78</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E60" t="s">
         <v>64</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F60" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C60" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" t="s">
-        <v>83</v>
-      </c>
-      <c r="H60" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
-      </c>
-      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" t="s">
         <v>70</v>
       </c>
-      <c r="L61" t="s">
-        <v>81</v>
+      <c r="F61" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s">
+        <v>70</v>
+      </c>
+      <c r="L63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" t="s">
         <v>76</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D64" t="s">
         <v>80</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I64" t="s">
         <v>77</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L64" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" t="s">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" t="s">
         <v>84</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C66" t="s">
         <v>1</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>2</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
         <v>3</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F66" t="s">
         <v>4</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G66" t="s">
         <v>5</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H66" t="s">
         <v>19</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I66" t="s">
         <v>42</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J66" t="s">
         <v>12</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K66" t="s">
         <v>6</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L66" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C65" t="s">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" t="s">
         <v>88</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D67" t="s">
         <v>118</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E67" t="s">
         <v>89</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J67" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F66" t="s">
-        <v>90</v>
-      </c>
-      <c r="H66" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" t="s">
-        <v>67</v>
-      </c>
-      <c r="H67" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" t="s">
-        <v>68</v>
-      </c>
-      <c r="L67" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
-      </c>
-      <c r="I68" t="s">
-        <v>87</v>
+        <v>71</v>
+      </c>
+      <c r="F68" t="s">
+        <v>90</v>
+      </c>
+      <c r="H68" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
-      </c>
-      <c r="F69" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="K69" t="s">
+        <v>68</v>
       </c>
       <c r="L69" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" t="s">
+        <v>86</v>
+      </c>
+      <c r="I70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71" t="s">
+        <v>94</v>
+      </c>
+      <c r="H71" t="s">
+        <v>95</v>
+      </c>
+      <c r="L71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C72" t="s">
         <v>99</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D72" t="s">
         <v>119</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" t="s">
-        <v>171</v>
-      </c>
-      <c r="C72" t="s">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" t="s">
         <v>1</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D74" t="s">
         <v>2</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E74" t="s">
         <v>3</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F74" t="s">
         <v>4</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G74" t="s">
         <v>5</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H74" t="s">
         <v>19</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I74" t="s">
         <v>42</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J74" t="s">
         <v>12</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K74" t="s">
         <v>6</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L74" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C73" t="s">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" t="s">
+        <v>156</v>
+      </c>
+      <c r="L75" t="s">
         <v>154</v>
-      </c>
-      <c r="D73" t="s">
-        <v>156</v>
-      </c>
-      <c r="E73" t="s">
-        <v>40</v>
-      </c>
-      <c r="J73" t="s">
-        <v>157</v>
-      </c>
-      <c r="L73" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C74" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" t="s">
-        <v>41</v>
-      </c>
-      <c r="L74" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C75" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" t="s">
-        <v>25</v>
-      </c>
-      <c r="F75" t="s">
-        <v>158</v>
-      </c>
-      <c r="H75" t="s">
-        <v>40</v>
-      </c>
-      <c r="J75" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" t="s">
+        <v>41</v>
+      </c>
+      <c r="L76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>157</v>
+      </c>
+      <c r="H77" t="s">
+        <v>40</v>
+      </c>
+      <c r="J77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C78" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" t="s">
         <v>159</v>
       </c>
-      <c r="D76" t="s">
-        <v>160</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="H78" t="s">
         <v>40</v>
       </c>
-      <c r="L76" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" t="s">
+      <c r="L78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" t="s">
+        <v>42</v>
+      </c>
+      <c r="J80" t="s">
+        <v>12</v>
+      </c>
+      <c r="K80" t="s">
+        <v>6</v>
+      </c>
+      <c r="L80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" t="s">
+        <v>112</v>
+      </c>
+      <c r="E81" t="s">
+        <v>104</v>
+      </c>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C82" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" t="s">
+        <v>115</v>
+      </c>
+      <c r="H82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C83" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" t="s">
+        <v>114</v>
+      </c>
+      <c r="F83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H83" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K85" t="s">
+        <v>6</v>
+      </c>
+      <c r="L85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" t="s">
+        <v>201</v>
+      </c>
+      <c r="C86" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" t="s">
+        <v>60</v>
+      </c>
+      <c r="J86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C87" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" t="s">
+        <v>100</v>
+      </c>
+      <c r="H87" t="s">
+        <v>123</v>
+      </c>
+      <c r="L87" t="s">
         <v>169</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78" t="s">
-        <v>4</v>
-      </c>
-      <c r="G78" t="s">
-        <v>5</v>
-      </c>
-      <c r="H78" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" t="s">
-        <v>42</v>
-      </c>
-      <c r="J78" t="s">
-        <v>12</v>
-      </c>
-      <c r="K78" t="s">
-        <v>6</v>
-      </c>
-      <c r="L78" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C79" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79" t="s">
-        <v>112</v>
-      </c>
-      <c r="E79" t="s">
-        <v>104</v>
-      </c>
-      <c r="J79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C80" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" t="s">
-        <v>115</v>
-      </c>
-      <c r="H80" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" t="s">
-        <v>114</v>
-      </c>
-      <c r="F81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" t="s">
-        <v>108</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" t="s">
-        <v>19</v>
-      </c>
-      <c r="I83" t="s">
-        <v>42</v>
-      </c>
-      <c r="J83" t="s">
-        <v>12</v>
-      </c>
-      <c r="K83" t="s">
-        <v>6</v>
-      </c>
-      <c r="L83" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C84" t="s">
-        <v>109</v>
-      </c>
-      <c r="D84" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" t="s">
-        <v>60</v>
-      </c>
-      <c r="J84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" t="s">
-        <v>100</v>
-      </c>
-      <c r="H85" t="s">
-        <v>123</v>
-      </c>
-      <c r="L85" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="200">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -50,24 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>主キー？</t>
-    <rPh sb="0" eb="1">
-      <t>シュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部キー？</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unique?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その他</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
@@ -142,10 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>足りる？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -153,10 +131,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NOT NULL?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EBBOOK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -170,10 +144,6 @@
   </si>
   <si>
     <t>book_id_seq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>book_count</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -219,10 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fowarding_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -252,9 +218,6 @@
   <si>
     <t>DEFAULT</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NUMBER(10)</t>
   </si>
   <si>
     <t>EBUSER.ID</t>
@@ -319,10 +282,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>card_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>card_number</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -366,10 +325,6 @@
     <t>VARCHAR2(100)</t>
   </si>
   <si>
-    <t>VARCHAR2(12)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -391,28 +346,6 @@
   </si>
   <si>
     <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>books</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CLOB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CONSTRAINT cart_chk CHECK(doc IS JSON)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{商品ID:個数,…}</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コスウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -491,10 +424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sales_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -507,10 +436,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>card_id_seq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>forwarding_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -547,67 +472,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NUMBER(4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>smallあればわかるが</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>small_genre_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>large_genre_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EBGENRE_L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>large_genre_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>small_genre_id_seq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>large_genre_id_seq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NUMBER(4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NUMBER(3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NUMBER(3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR2(36)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>small_genre_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>large_genre_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -777,14 +642,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ISBN_DATA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ISBN_DATA.book_isbn</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -903,14 +760,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EBGENRE_S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コミック、ライトノベル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EBARRIVAL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -995,23 +844,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本在庫</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ザイコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本データ</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カード情報</t>
     <rPh sb="3" eb="5">
       <t>ジョウホウ</t>
@@ -1033,16 +865,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品価格</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品に含まれる本</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -1109,27 +931,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小ジャンル</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大ジャンル</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openbdのデータ仕様　https://openbd.jp/spec/</t>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>書名</t>
     <rPh sb="0" eb="2">
       <t>ショメイ</t>
@@ -1154,16 +955,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>第何巻？</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ナンカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>著者</t>
     <rPh sb="0" eb="2">
       <t>チョシャ</t>
@@ -1197,11 +988,134 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR2(400)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部キー</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>足りる</t>
+  </si>
+  <si>
+    <t>第何巻</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ナンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nextval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品情報</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(16)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>security_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>card_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kigen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kazu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫どうする</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBSALES_REF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sales_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sales_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBGENRE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre_id_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openbdのデータ仕様　https://openbd.jp/spec/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1571,20 +1485,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L87"/>
+  <dimension ref="A2:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="17.08203125" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
@@ -1603,117 +1517,117 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1722,162 +1636,165 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>6</v>
-      </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" t="s">
         <v>40</v>
       </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1886,1047 +1803,925 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" t="s">
+        <v>175</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
         <v>3</v>
       </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" t="s">
-        <v>6</v>
-      </c>
       <c r="L21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="L25" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
-      </c>
-      <c r="L26" t="s">
-        <v>103</v>
+        <v>56</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" t="s">
-        <v>150</v>
-      </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="L28" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" t="s">
-        <v>189</v>
-      </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" t="s">
-        <v>151</v>
+        <v>113</v>
+      </c>
+      <c r="H29" t="s">
+        <v>117</v>
       </c>
       <c r="L29" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="L30" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" t="s">
-        <v>186</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>205</v>
+        <v>168</v>
+      </c>
+      <c r="L31" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" t="s">
+        <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>153</v>
+      </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>148</v>
-      </c>
-      <c r="L34" t="s">
-        <v>207</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" t="s">
-        <v>147</v>
-      </c>
-      <c r="H35" t="s">
-        <v>148</v>
-      </c>
-      <c r="L35" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>210</v>
-      </c>
-      <c r="L36" t="s">
-        <v>209</v>
+        <v>182</v>
+      </c>
+      <c r="H36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
       <c r="C38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" t="s">
+        <v>174</v>
+      </c>
+      <c r="H40" t="s">
+        <v>175</v>
+      </c>
+      <c r="I40" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" t="s">
         <v>3</v>
       </c>
-      <c r="F38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" t="s">
-        <v>6</v>
-      </c>
-      <c r="L38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>61</v>
+      <c r="L40" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" t="s">
+        <v>179</v>
+      </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" t="s">
-        <v>42</v>
-      </c>
-      <c r="J43" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L43" t="s">
-        <v>18</v>
+        <v>138</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
+      <c r="J41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" t="s">
+        <v>139</v>
+      </c>
+      <c r="L42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
         <v>172</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>173</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>174</v>
       </c>
+      <c r="H44" t="s">
+        <v>175</v>
+      </c>
+      <c r="I44" t="s">
+        <v>35</v>
+      </c>
       <c r="J44" t="s">
-        <v>175</v>
+        <v>9</v>
+      </c>
+      <c r="K44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>181</v>
-      </c>
-      <c r="H45" t="s">
-        <v>174</v>
-      </c>
-      <c r="L45" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" t="s">
-        <v>42</v>
-      </c>
-      <c r="J47" t="s">
-        <v>12</v>
-      </c>
-      <c r="K47" t="s">
-        <v>6</v>
-      </c>
-      <c r="L47" t="s">
-        <v>18</v>
+        <v>138</v>
+      </c>
+      <c r="J45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
         <v>172</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>173</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>174</v>
       </c>
+      <c r="H48" t="s">
+        <v>175</v>
+      </c>
+      <c r="I48" t="s">
+        <v>35</v>
+      </c>
       <c r="J48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53" t="s">
+        <v>173</v>
+      </c>
+      <c r="G53" t="s">
+        <v>174</v>
+      </c>
+      <c r="H53" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C49" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="I53" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" t="s">
         <v>174</v>
       </c>
-      <c r="F49" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="H57" t="s">
+        <v>175</v>
+      </c>
+      <c r="I57" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" t="s">
+        <v>65</v>
+      </c>
+      <c r="H61" t="s">
+        <v>56</v>
+      </c>
+      <c r="L61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+      <c r="I62" t="s">
+        <v>63</v>
+      </c>
+      <c r="L62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
         <v>1</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D64" t="s">
         <v>2</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E64" t="s">
+        <v>172</v>
+      </c>
+      <c r="F64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" t="s">
+        <v>174</v>
+      </c>
+      <c r="H64" t="s">
+        <v>175</v>
+      </c>
+      <c r="I64" t="s">
+        <v>35</v>
+      </c>
+      <c r="J64" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" t="s">
         <v>3</v>
       </c>
-      <c r="F51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" t="s">
-        <v>5</v>
-      </c>
-      <c r="H51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" t="s">
-        <v>42</v>
-      </c>
-      <c r="J51" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" t="s">
-        <v>6</v>
-      </c>
-      <c r="L51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="L64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" t="s">
+        <v>74</v>
+      </c>
+      <c r="J65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67" t="s">
         <v>71</v>
       </c>
-      <c r="E52" t="s">
-        <v>212</v>
-      </c>
-      <c r="F52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C53" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" t="s">
-        <v>212</v>
-      </c>
-      <c r="F53" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" t="s">
-        <v>177</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" t="s">
-        <v>5</v>
-      </c>
-      <c r="H55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" t="s">
-        <v>42</v>
-      </c>
-      <c r="J55" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" t="s">
-        <v>6</v>
-      </c>
-      <c r="L55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" t="s">
-        <v>196</v>
-      </c>
-      <c r="C56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" t="s">
-        <v>213</v>
-      </c>
-      <c r="F56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C57" t="s">
-        <v>172</v>
-      </c>
-      <c r="E57" t="s">
-        <v>212</v>
-      </c>
-      <c r="F57" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" t="s">
-        <v>42</v>
-      </c>
-      <c r="J59" t="s">
-        <v>12</v>
-      </c>
-      <c r="K59" t="s">
-        <v>6</v>
-      </c>
-      <c r="L59" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" t="s">
-        <v>197</v>
-      </c>
-      <c r="C60" t="s">
-        <v>178</v>
-      </c>
-      <c r="D60" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" t="s">
-        <v>64</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" t="s">
-        <v>70</v>
-      </c>
-      <c r="F61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" t="s">
-        <v>83</v>
-      </c>
-      <c r="H62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C63" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" t="s">
-        <v>79</v>
-      </c>
-      <c r="H63" t="s">
-        <v>70</v>
-      </c>
-      <c r="L63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" t="s">
-        <v>80</v>
-      </c>
-      <c r="I64" t="s">
-        <v>77</v>
-      </c>
-      <c r="L64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" t="s">
-        <v>42</v>
-      </c>
-      <c r="J66" t="s">
-        <v>12</v>
-      </c>
-      <c r="K66" t="s">
-        <v>6</v>
-      </c>
-      <c r="L66" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" t="s">
-        <v>118</v>
-      </c>
-      <c r="E67" t="s">
-        <v>89</v>
-      </c>
-      <c r="J67" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s">
-        <v>122</v>
+        <v>79</v>
+      </c>
+      <c r="L68" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
-      </c>
-      <c r="H69" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" t="s">
-        <v>68</v>
-      </c>
-      <c r="L69" t="s">
-        <v>69</v>
+        <v>88</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C70" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" t="s">
-        <v>86</v>
-      </c>
-      <c r="I70" t="s">
-        <v>87</v>
-      </c>
+      <c r="I70" s="3"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" t="s">
+        <v>189</v>
+      </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>172</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
+        <v>173</v>
+      </c>
+      <c r="G71" t="s">
+        <v>174</v>
       </c>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>175</v>
+      </c>
+      <c r="I71" t="s">
+        <v>35</v>
+      </c>
+      <c r="J71" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" t="s">
+        <v>3</v>
       </c>
       <c r="L71" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" t="s">
-        <v>119</v>
-      </c>
-      <c r="I72" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73" t="s">
+        <v>192</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C74" t="s">
+        <v>193</v>
+      </c>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76" t="s">
+        <v>173</v>
+      </c>
+      <c r="G76" t="s">
+        <v>174</v>
+      </c>
+      <c r="H76" t="s">
+        <v>175</v>
+      </c>
+      <c r="I76" t="s">
+        <v>35</v>
+      </c>
+      <c r="J76" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" t="s">
-        <v>170</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>3</v>
-      </c>
-      <c r="F74" t="s">
-        <v>4</v>
-      </c>
-      <c r="G74" t="s">
-        <v>5</v>
-      </c>
-      <c r="H74" t="s">
-        <v>19</v>
-      </c>
-      <c r="I74" t="s">
-        <v>42</v>
-      </c>
-      <c r="J74" t="s">
-        <v>12</v>
-      </c>
-      <c r="K74" t="s">
-        <v>6</v>
-      </c>
-      <c r="L74" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" t="s">
-        <v>199</v>
-      </c>
-      <c r="C75" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" t="s">
-        <v>155</v>
-      </c>
-      <c r="E75" t="s">
-        <v>40</v>
-      </c>
-      <c r="J75" t="s">
-        <v>156</v>
-      </c>
-      <c r="L75" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C76" t="s">
-        <v>162</v>
-      </c>
-      <c r="D76" t="s">
-        <v>25</v>
-      </c>
-      <c r="H76" t="s">
-        <v>41</v>
-      </c>
-      <c r="L76" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C77" t="s">
-        <v>21</v>
-      </c>
       <c r="D77" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" t="s">
-        <v>157</v>
-      </c>
-      <c r="H77" t="s">
-        <v>40</v>
+        <v>122</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
       </c>
       <c r="J77" t="s">
-        <v>23</v>
+        <v>123</v>
+      </c>
+      <c r="L77" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C78" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L78" t="s">
-        <v>161</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s">
+        <v>124</v>
+      </c>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" t="s">
-        <v>168</v>
-      </c>
       <c r="C80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" t="s">
+        <v>126</v>
+      </c>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+      <c r="L80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" t="s">
         <v>1</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D82" t="s">
         <v>2</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E82" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" t="s">
+        <v>173</v>
+      </c>
+      <c r="G82" t="s">
+        <v>174</v>
+      </c>
+      <c r="H82" t="s">
+        <v>175</v>
+      </c>
+      <c r="I82" t="s">
+        <v>35</v>
+      </c>
+      <c r="J82" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" t="s">
         <v>3</v>
       </c>
-      <c r="F80" t="s">
-        <v>4</v>
-      </c>
-      <c r="G80" t="s">
-        <v>5</v>
-      </c>
-      <c r="H80" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" t="s">
-        <v>42</v>
-      </c>
-      <c r="J80" t="s">
-        <v>12</v>
-      </c>
-      <c r="K80" t="s">
-        <v>6</v>
-      </c>
-      <c r="L80" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" t="s">
-        <v>200</v>
-      </c>
-      <c r="C81" t="s">
-        <v>106</v>
-      </c>
-      <c r="D81" t="s">
-        <v>112</v>
-      </c>
-      <c r="E81" t="s">
-        <v>104</v>
-      </c>
-      <c r="J81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C82" t="s">
-        <v>116</v>
-      </c>
-      <c r="D82" t="s">
-        <v>115</v>
-      </c>
-      <c r="H82" t="s">
-        <v>122</v>
+      <c r="L82" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" t="s">
+        <v>195</v>
+      </c>
       <c r="C83" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D83" t="s">
-        <v>114</v>
-      </c>
-      <c r="F83" t="s">
-        <v>105</v>
-      </c>
-      <c r="H83" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" t="s">
-        <v>108</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>2</v>
-      </c>
-      <c r="E85" t="s">
-        <v>3</v>
-      </c>
-      <c r="F85" t="s">
-        <v>4</v>
-      </c>
-      <c r="G85" t="s">
-        <v>5</v>
-      </c>
-      <c r="H85" t="s">
-        <v>19</v>
-      </c>
-      <c r="I85" t="s">
-        <v>42</v>
-      </c>
-      <c r="J85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K85" t="s">
-        <v>6</v>
-      </c>
-      <c r="L85" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" t="s">
-        <v>201</v>
-      </c>
-      <c r="C86" t="s">
-        <v>109</v>
-      </c>
-      <c r="D86" t="s">
-        <v>113</v>
-      </c>
-      <c r="E86" t="s">
-        <v>60</v>
-      </c>
-      <c r="J86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C87" t="s">
-        <v>117</v>
-      </c>
-      <c r="D87" t="s">
-        <v>100</v>
-      </c>
-      <c r="H87" t="s">
-        <v>123</v>
-      </c>
-      <c r="L87" t="s">
-        <v>169</v>
+        <v>86</v>
+      </c>
+      <c r="E83" t="s">
+        <v>50</v>
+      </c>
+      <c r="J83" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C84" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" t="s">
+        <v>84</v>
+      </c>
+      <c r="H84" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2963,7 +2758,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2984,10 +2779,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -15,7 +15,8 @@
     <sheet name="テーブル" sheetId="1" r:id="rId1"/>
     <sheet name="順序" sheetId="2" r:id="rId2"/>
     <sheet name="INDEX" sheetId="3" r:id="rId3"/>
-    <sheet name="json参考" sheetId="4" r:id="rId4"/>
+    <sheet name="本と商品別の場合の" sheetId="5" r:id="rId4"/>
+    <sheet name="json参考" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="199">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -135,18 +136,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>book_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>book_id_seq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NUMBER(7)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -224,15 +213,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR2(30)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NUMBER(7)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>forward_id_seq</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -286,10 +267,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR2(100)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>重複する場合例外キャッチして再入力求める。使える文字限定</t>
     <rPh sb="0" eb="2">
       <t>チョウフク</t>
@@ -322,9 +299,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR2(100)</t>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -353,18 +327,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR2(100)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EBUSER.ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EBBOOK.BOOK_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>review_text</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -378,10 +344,6 @@
   </si>
   <si>
     <t>SYSDATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NUMBER(7)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -436,14 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>forwarding_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EBADDRESS.forwarding_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -469,6 +423,10 @@
   </si>
   <si>
     <t>genre_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(4)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -502,92 +460,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>address_prefecture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>送り先住所、県</t>
-    <rPh sb="0" eb="1">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>address_city</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>区市町村</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="1" eb="4">
-      <t>シチョウソン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>address_address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>番地</t>
-    <rPh sb="0" eb="2">
-      <t>バンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>address_apartment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>建物名、部屋番号</t>
-    <rPh sb="0" eb="2">
-      <t>タテモノ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR2(9)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR2(30)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR2(60)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR2(90)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -665,18 +538,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EBBOOK.book_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>arrival_count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NUMBER(4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>正の値</t>
     <rPh sb="0" eb="1">
       <t>セイ</t>
@@ -687,22 +548,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>正の値、同時にEBBOOKのbook_countを変更する</t>
-    <rPh sb="0" eb="1">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>arrival_price</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -779,10 +624,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>product_id_seq</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -795,29 +636,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>product_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EBPRODUCT.ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>price</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>NUMBER(6)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正の値</t>
-    <rPh sb="0" eb="1">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アタイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -828,15 +651,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PRODUCT_REVIEW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>series</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR2(100)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -904,13 +719,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品レビュー</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>販売情報</t>
     <rPh sb="0" eb="2">
       <t>ハンバイ</t>
@@ -988,6 +796,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>VARCHAR2(400)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1060,14 +872,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>kigen</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kazu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>在庫どうする</t>
     <rPh sb="0" eb="2">
       <t>ザイコ</t>
@@ -1083,18 +887,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sales_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>book_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>book_amount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EBGENRE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1116,6 +912,201 @@
   </si>
   <si>
     <t>openbdのデータ仕様　https://openbd.jp/spec/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>card_expiration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送り先住所</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(13)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBBOOK.book_isbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫数以下なら警告とか</t>
+    <rPh sb="0" eb="3">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrival_amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正の値、同時にEBBOOKのbook_amountを変更する。book_amountの上限越えないように</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複合</t>
+    <rPh sb="0" eb="2">
+      <t>フクゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード決済、コンビニ決済、</t>
+    <rPh sb="3" eb="5">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address_id_seq</t>
+  </si>
+  <si>
+    <t>address_id_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sales_id_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sales_id_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrival_id_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nextval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBBOOK.book_isbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE SEQUENCE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre_id_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBADDRESS.address_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBGENRE.genre_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sales_amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cart_amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBREVIEW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nextval</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1485,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L84"/>
+  <dimension ref="A2:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1517,19 +1508,19 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -1543,33 +1534,33 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="L4" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1577,10 +1568,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
@@ -1591,13 +1582,13 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1619,15 +1610,15 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1636,19 +1627,19 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="H10" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
         <v>9</v>
@@ -1662,458 +1653,464 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>141</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>162</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" t="s">
-        <v>173</v>
-      </c>
-      <c r="G21" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21" t="s">
-        <v>175</v>
-      </c>
-      <c r="I21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" t="s">
-        <v>198</v>
-      </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>127</v>
+        <v>150</v>
+      </c>
+      <c r="H22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
-      </c>
-      <c r="L23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" t="s">
-        <v>199</v>
+        <v>185</v>
+      </c>
+      <c r="H23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" t="s">
+        <v>140</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>141</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" t="s">
+        <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>163</v>
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" t="s">
-        <v>112</v>
-      </c>
-      <c r="L28" t="s">
-        <v>177</v>
+        <v>72</v>
+      </c>
+      <c r="H27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" t="s">
+        <v>140</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>141</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" t="s">
+        <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" t="s">
-        <v>117</v>
+        <v>74</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="L31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
+        <v>193</v>
+      </c>
+      <c r="J33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+      <c r="L38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s">
+        <v>93</v>
+      </c>
+      <c r="L39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" t="s">
+        <v>186</v>
+      </c>
+      <c r="I42" t="s">
         <v>173</v>
       </c>
-      <c r="G33" t="s">
-        <v>174</v>
-      </c>
-      <c r="H33" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" t="s">
-        <v>182</v>
-      </c>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C37" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" t="s">
-        <v>174</v>
-      </c>
-      <c r="H40" t="s">
-        <v>175</v>
-      </c>
-      <c r="I40" t="s">
-        <v>35</v>
-      </c>
-      <c r="J40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" t="s">
-        <v>139</v>
-      </c>
-      <c r="J41" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" t="s">
-        <v>139</v>
-      </c>
-      <c r="L42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -2122,19 +2119,19 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="G44" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="H44" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="I44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J44" t="s">
         <v>9</v>
@@ -2146,96 +2143,141 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" t="s">
+        <v>176</v>
+      </c>
+      <c r="H45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" t="s">
+        <v>170</v>
+      </c>
+      <c r="G46" t="s">
+        <v>176</v>
+      </c>
+      <c r="H46" t="s">
+        <v>135</v>
+      </c>
+      <c r="L46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" t="s">
+        <v>171</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
         <v>138</v>
       </c>
-      <c r="J45" t="s">
+      <c r="F49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" t="s">
+      <c r="H49" t="s">
         <v>141</v>
       </c>
-      <c r="F46" t="s">
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" t="s">
+        <v>176</v>
+      </c>
+      <c r="H50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>172</v>
-      </c>
-      <c r="F48" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" t="s">
-        <v>174</v>
-      </c>
-      <c r="H48" t="s">
-        <v>175</v>
-      </c>
-      <c r="I48" t="s">
-        <v>35</v>
-      </c>
-      <c r="J48" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" t="s">
+        <v>176</v>
+      </c>
+      <c r="H51" t="s">
+        <v>136</v>
+      </c>
+      <c r="L51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -2244,19 +2286,19 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="F53" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="G53" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="H53" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="I53" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J53" t="s">
         <v>9</v>
@@ -2268,460 +2310,367 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F54" t="s">
+        <v>170</v>
+      </c>
+      <c r="L54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" t="s">
         <v>55</v>
       </c>
-      <c r="D54" t="s">
+      <c r="H57" t="s">
+        <v>49</v>
+      </c>
+      <c r="L57" t="s">
         <v>57</v>
       </c>
-      <c r="F54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C55" t="s">
-        <v>137</v>
-      </c>
-      <c r="F55" t="s">
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" t="s">
+        <v>139</v>
+      </c>
+      <c r="G60" t="s">
+        <v>140</v>
+      </c>
+      <c r="H60" t="s">
+        <v>141</v>
+      </c>
+      <c r="I60" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+      <c r="I61" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="J61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" t="s">
+        <v>191</v>
+      </c>
+      <c r="H64" t="s">
+        <v>67</v>
+      </c>
+      <c r="L64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" t="s">
         <v>1</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D67" t="s">
         <v>2</v>
       </c>
-      <c r="E57" t="s">
-        <v>172</v>
-      </c>
-      <c r="F57" t="s">
-        <v>173</v>
-      </c>
-      <c r="G57" t="s">
-        <v>174</v>
-      </c>
-      <c r="H57" t="s">
-        <v>175</v>
-      </c>
-      <c r="I57" t="s">
-        <v>35</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="E67" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" t="s">
+        <v>141</v>
+      </c>
+      <c r="I67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" t="s">
         <v>9</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K67" t="s">
         <v>3</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L67" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
-      </c>
-      <c r="D58" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C59" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C60" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" t="s">
-        <v>69</v>
-      </c>
-      <c r="H60" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" t="s">
-        <v>65</v>
-      </c>
-      <c r="H61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C62" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" t="s">
-        <v>66</v>
-      </c>
-      <c r="I62" t="s">
-        <v>63</v>
-      </c>
-      <c r="L62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>172</v>
-      </c>
-      <c r="F64" t="s">
-        <v>173</v>
-      </c>
-      <c r="G64" t="s">
-        <v>174</v>
-      </c>
-      <c r="H64" t="s">
-        <v>175</v>
-      </c>
-      <c r="I64" t="s">
-        <v>35</v>
-      </c>
-      <c r="J64" t="s">
-        <v>9</v>
-      </c>
-      <c r="K64" t="s">
-        <v>3</v>
-      </c>
-      <c r="L64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" t="s">
-        <v>190</v>
-      </c>
-      <c r="D65" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" t="s">
-        <v>74</v>
-      </c>
-      <c r="J65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" t="s">
-        <v>75</v>
-      </c>
-      <c r="H66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C67" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" t="s">
-        <v>72</v>
-      </c>
-      <c r="I67" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
-      </c>
-      <c r="F68" t="s">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s">
-        <v>79</v>
-      </c>
-      <c r="L68" t="s">
-        <v>82</v>
+        <v>68</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
-        <v>88</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="H69" t="s">
+        <v>135</v>
+      </c>
+      <c r="I69" s="3"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C70" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" t="s">
+        <v>178</v>
+      </c>
+      <c r="H70" t="s">
+        <v>135</v>
+      </c>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" t="s">
-        <v>189</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" t="s">
         <v>1</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>2</v>
       </c>
-      <c r="E71" t="s">
-        <v>172</v>
-      </c>
-      <c r="F71" t="s">
-        <v>173</v>
-      </c>
-      <c r="G71" t="s">
-        <v>174</v>
-      </c>
-      <c r="H71" t="s">
-        <v>175</v>
-      </c>
-      <c r="I71" t="s">
-        <v>35</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" t="s">
+        <v>140</v>
+      </c>
+      <c r="H72" t="s">
+        <v>141</v>
+      </c>
+      <c r="I72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" t="s">
         <v>9</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K72" t="s">
         <v>3</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L72" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C72" t="s">
-        <v>191</v>
-      </c>
-      <c r="E72" t="s">
-        <v>170</v>
-      </c>
-    </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" t="s">
+        <v>126</v>
+      </c>
       <c r="C73" t="s">
-        <v>192</v>
-      </c>
-      <c r="I73" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="D73" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" t="s">
+        <v>187</v>
+      </c>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+      <c r="L73" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" t="s">
-        <v>193</v>
-      </c>
-      <c r="I74" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="I75" s="3"/>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" t="s">
+        <v>169</v>
+      </c>
+      <c r="H75" t="s">
+        <v>188</v>
+      </c>
+      <c r="L75" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" t="s">
-        <v>135</v>
-      </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="D76" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s">
-        <v>172</v>
-      </c>
-      <c r="F76" t="s">
-        <v>173</v>
-      </c>
-      <c r="G76" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L76" t="s">
         <v>175</v>
-      </c>
-      <c r="I76" t="s">
-        <v>35</v>
-      </c>
-      <c r="J76" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" t="s">
-        <v>120</v>
-      </c>
-      <c r="D77" t="s">
-        <v>122</v>
-      </c>
-      <c r="E77" t="s">
-        <v>33</v>
-      </c>
-      <c r="J77" t="s">
-        <v>123</v>
-      </c>
-      <c r="L77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C78" t="s">
-        <v>129</v>
-      </c>
-      <c r="D78" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" t="s">
-        <v>34</v>
-      </c>
-      <c r="L78" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C79" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" t="s">
-        <v>124</v>
-      </c>
-      <c r="H79" t="s">
-        <v>33</v>
-      </c>
-      <c r="J79" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C80" t="s">
-        <v>125</v>
-      </c>
-      <c r="D80" t="s">
-        <v>126</v>
-      </c>
-      <c r="H80" t="s">
-        <v>33</v>
-      </c>
-      <c r="L80" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" t="s">
-        <v>194</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s">
-        <v>172</v>
-      </c>
-      <c r="F82" t="s">
-        <v>173</v>
-      </c>
-      <c r="G82" t="s">
-        <v>174</v>
-      </c>
-      <c r="H82" t="s">
-        <v>175</v>
-      </c>
-      <c r="I82" t="s">
-        <v>35</v>
-      </c>
-      <c r="J82" t="s">
-        <v>9</v>
-      </c>
-      <c r="K82" t="s">
-        <v>3</v>
-      </c>
-      <c r="L82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" t="s">
-        <v>195</v>
-      </c>
-      <c r="C83" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" t="s">
-        <v>86</v>
-      </c>
-      <c r="E83" t="s">
-        <v>50</v>
-      </c>
-      <c r="J83" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C84" t="s">
-        <v>197</v>
-      </c>
-      <c r="D84" t="s">
-        <v>84</v>
-      </c>
-      <c r="H84" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2733,14 +2682,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G11" sqref="G8:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="19.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2758,7 +2734,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2769,20 +2745,539 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
+  <dimension ref="B2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="13.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="201">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -887,10 +887,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>book_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EBGENRE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1017,10 +1013,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NUMBER(7)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NUMBER(4)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1107,6 +1099,25 @@
   </si>
   <si>
     <t>nextval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBSALES.sales_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBUSER.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複合</t>
+    <rPh sb="0" eb="2">
+      <t>フクゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBBOOK.book_isbn</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1478,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1668,7 +1679,7 @@
         <v>144</v>
       </c>
       <c r="J11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L11" t="s">
         <v>36</v>
@@ -1715,7 +1726,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
         <v>89</v>
@@ -1724,7 +1735,7 @@
         <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1784,7 +1795,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -1798,7 +1809,7 @@
         <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H20" t="s">
         <v>10</v>
@@ -1828,10 +1839,10 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H23" t="s">
         <v>135</v>
@@ -1839,7 +1850,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -1874,7 +1885,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
         <v>73</v>
@@ -1886,15 +1897,15 @@
         <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
         <v>72</v>
@@ -1940,7 +1951,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
         <v>147</v>
@@ -1968,7 +1979,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
         <v>115</v>
@@ -1988,10 +1999,10 @@
         <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1999,13 +2010,13 @@
         <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="L34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2099,13 +2110,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2151,13 +2162,13 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F45" t="s">
         <v>65</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H45" t="s">
         <v>135</v>
@@ -2168,19 +2179,19 @@
         <v>79</v>
       </c>
       <c r="D46" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" t="s">
         <v>169</v>
       </c>
-      <c r="F46" t="s">
-        <v>170</v>
-      </c>
       <c r="G46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H46" t="s">
         <v>135</v>
       </c>
       <c r="L46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2188,16 +2199,16 @@
         <v>152</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2249,7 +2260,7 @@
         <v>65</v>
       </c>
       <c r="G50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H50" t="s">
         <v>136</v>
@@ -2260,24 +2271,24 @@
         <v>79</v>
       </c>
       <c r="D51" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" t="s">
         <v>169</v>
       </c>
-      <c r="F51" t="s">
-        <v>170</v>
-      </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H51" t="s">
         <v>136</v>
       </c>
       <c r="L51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -2312,22 +2323,22 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C54" t="s">
         <v>79</v>
       </c>
       <c r="D54" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" t="s">
         <v>169</v>
       </c>
-      <c r="E54" t="s">
-        <v>194</v>
-      </c>
-      <c r="F54" t="s">
-        <v>170</v>
-      </c>
       <c r="L54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2435,7 +2446,7 @@
         <v>144</v>
       </c>
       <c r="J61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2446,7 +2457,7 @@
         <v>82</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="H62" t="s">
         <v>80</v>
@@ -2471,7 +2482,7 @@
         <v>69</v>
       </c>
       <c r="F64" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H64" t="s">
         <v>67</v>
@@ -2491,7 +2502,7 @@
         <v>78</v>
       </c>
       <c r="L65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2539,7 +2550,13 @@
       <c r="D68" t="s">
         <v>68</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
+        <v>197</v>
+      </c>
+      <c r="G68" t="s">
+        <v>199</v>
+      </c>
+      <c r="H68" t="s">
         <v>10</v>
       </c>
       <c r="J68" t="s">
@@ -2548,22 +2565,30 @@
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>177</v>
+        <v>42</v>
+      </c>
+      <c r="F69" t="s">
+        <v>200</v>
+      </c>
+      <c r="G69" t="s">
+        <v>199</v>
       </c>
       <c r="H69" t="s">
-        <v>135</v>
-      </c>
-      <c r="I69" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L69" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H70" t="s">
         <v>135</v>
@@ -2622,7 +2647,7 @@
         <v>30</v>
       </c>
       <c r="I73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J73" t="s">
         <v>99</v>
@@ -2650,18 +2675,18 @@
         <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D76" t="s">
         <v>74</v>
@@ -2670,7 +2695,7 @@
         <v>30</v>
       </c>
       <c r="L76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2695,25 +2720,25 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2790,7 +2815,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
         <v>147</v>
@@ -2833,7 +2858,7 @@
         <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -3112,7 +3137,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
         <v>147</v>
@@ -3140,7 +3165,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
         <v>115</v>
@@ -3160,10 +3185,10 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3171,13 +3196,13 @@
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3271,13 +3296,13 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="203">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -1118,6 +1118,14 @@
   </si>
   <si>
     <t>EBBOOK.book_isbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(150)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHECK(book_amount&gt;=0)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1489,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1729,7 +1737,7 @@
         <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
@@ -1961,6 +1969,9 @@
       </c>
       <c r="I30">
         <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>202</v>
       </c>
       <c r="L30" t="s">
         <v>100</v>

--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="218">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -1126,6 +1126,78 @@
   </si>
   <si>
     <t>CHECK(book_amount&gt;=0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsonから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onix/summary/title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onix/summary/series</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onix/summary/volume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onix/summary/pubdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onix/summary/cover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onix/DescriptiveDetail/Collection/TitleDetail/TitleElement/TitleText/content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容説明</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~/CollateralDetail/TextContent/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/TextType:03,text(詳説)</t>
+    <rPh sb="18" eb="20">
+      <t>ショウセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/TextType:02,text(略説),"ContentAudience":"00","04"</t>
+    <rPh sb="18" eb="20">
+      <t>リャクセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~/Audience/"AudienceCodeType":"22","AudienceCodeValue":"02"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onix/summary/publisher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~/Contributor/"ContributorRole":["A01"],"PersonName"/content</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1495,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L76"/>
+  <dimension ref="A2:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1979,204 +2051,210 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>115</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
       </c>
       <c r="L31" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
-      </c>
-      <c r="H32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" t="s">
-        <v>100</v>
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" t="s">
-        <v>191</v>
-      </c>
-      <c r="J33" t="s">
-        <v>157</v>
+        <v>168</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
+        <v>86</v>
+      </c>
+      <c r="H34" t="s">
+        <v>49</v>
       </c>
       <c r="L34" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s">
         <v>49</v>
       </c>
-      <c r="L35" t="s">
-        <v>127</v>
+      <c r="L35" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>129</v>
+        <v>88</v>
+      </c>
+      <c r="L37" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="H38" t="s">
+        <v>93</v>
       </c>
       <c r="L38" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s">
         <v>93</v>
       </c>
       <c r="L39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H40" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
-      </c>
-      <c r="L41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" t="s">
         <v>184</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I41" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" t="s">
+        <v>141</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="F44" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
-      </c>
-      <c r="I44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" t="s">
-        <v>123</v>
-      </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="G45" t="s">
         <v>175</v>
@@ -2184,91 +2262,91 @@
       <c r="H45" t="s">
         <v>135</v>
       </c>
+      <c r="L45" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>152</v>
+      </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" t="s">
-        <v>169</v>
-      </c>
-      <c r="G46" t="s">
-        <v>175</v>
-      </c>
-      <c r="H46" t="s">
-        <v>135</v>
+        <v>170</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47" t="s">
-        <v>170</v>
-      </c>
-      <c r="I47">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
         <v>1</v>
       </c>
-      <c r="L47" t="s">
-        <v>171</v>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="F49" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="G49" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="H49" t="s">
-        <v>141</v>
-      </c>
-      <c r="I49" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" t="s">
-        <v>9</v>
-      </c>
-      <c r="K49" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" t="s">
-        <v>124</v>
-      </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="G50" t="s">
         <v>175</v>
@@ -2276,293 +2354,296 @@
       <c r="H50" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" t="s">
-        <v>169</v>
-      </c>
-      <c r="G51" t="s">
-        <v>175</v>
-      </c>
-      <c r="H51" t="s">
-        <v>136</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="L50" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" t="s">
+        <v>139</v>
+      </c>
+      <c r="G52" t="s">
+        <v>140</v>
+      </c>
+      <c r="H52" t="s">
+        <v>141</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D53" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="F53" t="s">
-        <v>139</v>
-      </c>
-      <c r="G53" t="s">
-        <v>140</v>
-      </c>
-      <c r="H53" t="s">
-        <v>141</v>
-      </c>
-      <c r="I53" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" t="s">
-        <v>9</v>
-      </c>
-      <c r="K53" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="L53" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" t="s">
-        <v>190</v>
-      </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>169</v>
-      </c>
-      <c r="L54" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="L56" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
-      </c>
-      <c r="H57" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="I57" t="s">
+        <v>54</v>
       </c>
       <c r="L57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" t="s">
-        <v>56</v>
-      </c>
-      <c r="I58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L58" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" t="s">
+        <v>141</v>
+      </c>
+      <c r="I59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="D60" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
-      </c>
-      <c r="F60" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" t="s">
-        <v>140</v>
-      </c>
-      <c r="H60" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="I60" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="J60" t="s">
-        <v>9</v>
-      </c>
-      <c r="K60" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" t="s">
-        <v>125</v>
-      </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="D61" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" t="s">
-        <v>64</v>
-      </c>
-      <c r="I61" t="s">
-        <v>144</v>
-      </c>
-      <c r="J61" t="s">
-        <v>180</v>
+        <v>82</v>
+      </c>
+      <c r="F61" t="s">
+        <v>198</v>
+      </c>
+      <c r="H61" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" t="s">
-        <v>198</v>
-      </c>
-      <c r="H62" t="s">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="I62" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
-      </c>
-      <c r="I63" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="F63" t="s">
+        <v>189</v>
+      </c>
+      <c r="H63" t="s">
+        <v>67</v>
+      </c>
+      <c r="L63" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
-      </c>
-      <c r="F64" t="s">
-        <v>189</v>
-      </c>
-      <c r="H64" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="L64" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" t="s">
-        <v>77</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L65" t="s">
-        <v>177</v>
-      </c>
+      <c r="I65" s="3"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="I66" s="3"/>
+      <c r="B66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" t="s">
+        <v>140</v>
+      </c>
+      <c r="H66" t="s">
+        <v>141</v>
+      </c>
+      <c r="I66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" t="s">
-        <v>153</v>
-      </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="D67" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="F67" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="G67" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="H67" t="s">
-        <v>141</v>
-      </c>
-      <c r="I67" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="J67" t="s">
-        <v>9</v>
-      </c>
-      <c r="K67" t="s">
-        <v>3</v>
-      </c>
-      <c r="L67" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G68" t="s">
         <v>199</v>
@@ -2570,142 +2651,122 @@
       <c r="H68" t="s">
         <v>10</v>
       </c>
-      <c r="J68" t="s">
-        <v>66</v>
+      <c r="L68" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="D69" t="s">
-        <v>42</v>
-      </c>
-      <c r="F69" t="s">
-        <v>200</v>
-      </c>
-      <c r="G69" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="H69" t="s">
-        <v>10</v>
-      </c>
-      <c r="L69" t="s">
-        <v>160</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="I69" s="3"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C70" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" t="s">
-        <v>176</v>
-      </c>
-      <c r="H70" t="s">
-        <v>135</v>
-      </c>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="I71" s="3"/>
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" t="s">
+        <v>140</v>
+      </c>
+      <c r="H71" t="s">
+        <v>141</v>
+      </c>
+      <c r="I71" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" t="s">
+        <v>3</v>
+      </c>
+      <c r="L71" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E72" t="s">
-        <v>138</v>
-      </c>
-      <c r="F72" t="s">
-        <v>139</v>
-      </c>
-      <c r="G72" t="s">
-        <v>140</v>
-      </c>
-      <c r="H72" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="I72" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="J72" t="s">
-        <v>9</v>
-      </c>
-      <c r="K72" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="L72" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" t="s">
-        <v>126</v>
-      </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" t="s">
-        <v>30</v>
-      </c>
-      <c r="I73" t="s">
-        <v>185</v>
-      </c>
-      <c r="J73" t="s">
-        <v>99</v>
+        <v>16</v>
+      </c>
+      <c r="H73" t="s">
+        <v>31</v>
       </c>
       <c r="L73" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="H74" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="L74" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C75" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="L75" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C76" t="s">
-        <v>173</v>
-      </c>
-      <c r="D76" t="s">
-        <v>74</v>
-      </c>
-      <c r="H76" t="s">
-        <v>30</v>
-      </c>
-      <c r="L76" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3092,18 +3153,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L17"/>
+  <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B17"/>
+    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="13.9140625" customWidth="1"/>
+    <col min="13" max="13" width="70.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -3111,7 +3173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -3146,7 +3208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>159</v>
       </c>
@@ -3163,7 +3225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -3173,8 +3235,11 @@
       <c r="L6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>164</v>
       </c>
@@ -3188,7 +3253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
         <v>73</v>
       </c>
@@ -3202,7 +3267,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
         <v>79</v>
       </c>
@@ -3216,7 +3281,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
       <c r="C10" t="s">
         <v>83</v>
       </c>
@@ -3229,8 +3297,14 @@
       <c r="L10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
       <c r="C11" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3317,14 @@
       <c r="L11" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
       <c r="C12" t="s">
         <v>117</v>
       </c>
@@ -3254,8 +3334,14 @@
       <c r="L12" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
       <c r="C13" t="s">
         <v>87</v>
       </c>
@@ -3265,8 +3351,14 @@
       <c r="L13" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>203</v>
+      </c>
       <c r="C14" t="s">
         <v>90</v>
       </c>
@@ -3279,8 +3371,14 @@
       <c r="L14" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
       <c r="C15" t="s">
         <v>91</v>
       </c>
@@ -3293,8 +3391,14 @@
       <c r="L15" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
       <c r="C16" t="s">
         <v>118</v>
       </c>
@@ -3304,8 +3408,14 @@
       <c r="L16" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="M16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
       <c r="C17" t="s">
         <v>165</v>
       </c>
@@ -3314,6 +3424,30 @@
       </c>
       <c r="I17" t="s">
         <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>210</v>
+      </c>
+      <c r="M17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L18" t="s">
+        <v>211</v>
+      </c>
+      <c r="M18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M20" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3322,5 +3456,6 @@
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="225">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -927,10 +927,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レーベル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>送り先住所</t>
     <rPh sb="0" eb="1">
       <t>オク</t>
@@ -1149,10 +1145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>onix/summary/cover</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>onix/DescriptiveDetail/Collection/TitleDetail/TitleElement/TitleText/content</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1198,6 +1190,54 @@
   </si>
   <si>
     <t>~/Contributor/"ContributorRole":["A01"],"PersonName"/content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onix/summary/cover(ないこと多い？)</t>
+    <rPh sb="23" eb="24">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(40)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名(ISBNコード＋.jpg)。いる？</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text_content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(4000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容説明</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1567,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L75"/>
+  <dimension ref="A2:L76"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1759,7 +1799,7 @@
         <v>144</v>
       </c>
       <c r="J11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L11" t="s">
         <v>36</v>
@@ -1806,16 +1846,16 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1922,7 +1962,7 @@
         <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
         <v>135</v>
@@ -1977,7 +2017,7 @@
         <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J26" t="s">
         <v>157</v>
@@ -2043,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s">
         <v>100</v>
@@ -2071,7 +2111,7 @@
         <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J32" t="s">
         <v>157</v>
@@ -2082,7 +2122,7 @@
         <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -2146,7 +2186,7 @@
         <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s">
         <v>93</v>
@@ -2182,592 +2222,606 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" t="s">
-        <v>140</v>
-      </c>
-      <c r="H43" t="s">
-        <v>141</v>
-      </c>
-      <c r="I43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" t="s">
-        <v>14</v>
+        <v>171</v>
+      </c>
+      <c r="L41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" t="s">
+        <v>222</v>
+      </c>
+      <c r="L42" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" t="s">
+        <v>141</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
         <v>123</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>48</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>162</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>65</v>
       </c>
-      <c r="G44" t="s">
-        <v>175</v>
-      </c>
-      <c r="H44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" t="s">
-        <v>169</v>
-      </c>
       <c r="G45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H45" t="s">
         <v>135</v>
       </c>
-      <c r="L45" t="s">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" t="s">
+        <v>174</v>
+      </c>
+      <c r="H46" t="s">
+        <v>135</v>
+      </c>
+      <c r="L46" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" t="s">
+        <v>169</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
         <v>170</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" t="s">
-        <v>140</v>
-      </c>
-      <c r="H48" t="s">
-        <v>141</v>
-      </c>
-      <c r="I48" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" t="s">
+        <v>140</v>
+      </c>
+      <c r="H49" t="s">
+        <v>141</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" t="s">
         <v>124</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>48</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>82</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>65</v>
       </c>
-      <c r="G49" t="s">
-        <v>175</v>
-      </c>
-      <c r="H49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F50" t="s">
-        <v>169</v>
-      </c>
       <c r="G50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H50" t="s">
         <v>136</v>
       </c>
-      <c r="L50" t="s">
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" t="s">
+        <v>174</v>
+      </c>
+      <c r="H51" t="s">
+        <v>136</v>
+      </c>
+      <c r="L51" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" t="s">
-        <v>139</v>
-      </c>
-      <c r="G52" t="s">
-        <v>140</v>
-      </c>
-      <c r="H52" t="s">
-        <v>141</v>
-      </c>
-      <c r="I52" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" t="s">
-        <v>9</v>
-      </c>
-      <c r="K52" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53" t="s">
+        <v>141</v>
+      </c>
+      <c r="I53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" t="s">
         <v>79</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" t="s">
         <v>168</v>
       </c>
-      <c r="E53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F53" t="s">
-        <v>169</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="L54" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
-      </c>
-      <c r="H55" t="s">
-        <v>47</v>
+        <v>82</v>
+      </c>
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H56" t="s">
-        <v>49</v>
-      </c>
-      <c r="L56" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57" t="s">
+        <v>49</v>
+      </c>
+      <c r="L57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58" t="s">
         <v>53</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>56</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I58" t="s">
         <v>54</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L58" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>138</v>
-      </c>
-      <c r="F59" t="s">
-        <v>139</v>
-      </c>
-      <c r="G59" t="s">
-        <v>140</v>
-      </c>
-      <c r="H59" t="s">
-        <v>141</v>
-      </c>
-      <c r="I59" t="s">
-        <v>32</v>
-      </c>
-      <c r="J59" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" t="s">
+        <v>139</v>
+      </c>
+      <c r="G60" t="s">
+        <v>140</v>
+      </c>
+      <c r="H60" t="s">
+        <v>141</v>
+      </c>
+      <c r="I60" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" t="s">
         <v>125</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>154</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>76</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>64</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I61" t="s">
         <v>144</v>
       </c>
-      <c r="J60" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C61" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" t="s">
-        <v>198</v>
-      </c>
-      <c r="H61" t="s">
-        <v>80</v>
+      <c r="J61" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
-      </c>
-      <c r="I62" t="s">
-        <v>63</v>
+        <v>82</v>
+      </c>
+      <c r="F62" t="s">
+        <v>197</v>
+      </c>
+      <c r="H62" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
-      </c>
-      <c r="F63" t="s">
-        <v>189</v>
-      </c>
-      <c r="H63" t="s">
-        <v>67</v>
-      </c>
-      <c r="L63" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="I63" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" t="s">
+        <v>188</v>
+      </c>
+      <c r="H64" t="s">
+        <v>67</v>
+      </c>
+      <c r="L64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" t="s">
         <v>71</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>77</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="I65" s="3"/>
+      <c r="L65" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" t="s">
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" t="s">
         <v>153</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>1</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>2</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>138</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>139</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>140</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H67" t="s">
         <v>141</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I67" t="s">
         <v>32</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J67" t="s">
         <v>9</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K67" t="s">
         <v>3</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L67" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C67" t="s">
-        <v>154</v>
-      </c>
-      <c r="D67" t="s">
-        <v>68</v>
-      </c>
-      <c r="F67" t="s">
-        <v>197</v>
-      </c>
-      <c r="G67" t="s">
-        <v>199</v>
-      </c>
-      <c r="H67" t="s">
-        <v>10</v>
-      </c>
-      <c r="J67" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="D68" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F68" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H68" t="s">
         <v>10</v>
       </c>
-      <c r="L68" t="s">
-        <v>160</v>
+      <c r="J68" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>42</v>
+      </c>
+      <c r="F69" t="s">
+        <v>199</v>
+      </c>
+      <c r="G69" t="s">
+        <v>198</v>
       </c>
       <c r="H69" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C70" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" t="s">
+        <v>175</v>
+      </c>
+      <c r="H70" t="s">
         <v>135</v>
       </c>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" t="s">
-        <v>107</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s">
-        <v>138</v>
-      </c>
-      <c r="F71" t="s">
-        <v>139</v>
-      </c>
-      <c r="G71" t="s">
-        <v>140</v>
-      </c>
-      <c r="H71" t="s">
-        <v>141</v>
-      </c>
-      <c r="I71" t="s">
-        <v>32</v>
-      </c>
-      <c r="J71" t="s">
-        <v>9</v>
-      </c>
-      <c r="K71" t="s">
-        <v>3</v>
-      </c>
-      <c r="L71" t="s">
-        <v>14</v>
-      </c>
+      <c r="I71" s="3"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" t="s">
+        <v>140</v>
+      </c>
+      <c r="H72" t="s">
+        <v>141</v>
+      </c>
+      <c r="I72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" t="s">
         <v>126</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>96</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>98</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>30</v>
       </c>
-      <c r="I72" t="s">
-        <v>185</v>
-      </c>
-      <c r="J72" t="s">
+      <c r="I73" t="s">
+        <v>184</v>
+      </c>
+      <c r="J73" t="s">
         <v>99</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L73" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" t="s">
-        <v>31</v>
-      </c>
-      <c r="L73" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D74" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="H74" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="L74" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75" t="s">
+        <v>185</v>
+      </c>
+      <c r="L75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C76" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L76" t="s">
         <v>173</v>
-      </c>
-      <c r="D75" t="s">
-        <v>74</v>
-      </c>
-      <c r="H75" t="s">
-        <v>30</v>
-      </c>
-      <c r="L75" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2792,25 +2846,25 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3155,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3230,13 +3284,16 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>218</v>
+      </c>
+      <c r="G6" t="s">
+        <v>219</v>
       </c>
       <c r="L6" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="M6" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3261,7 +3318,7 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J8" t="s">
         <v>157</v>
@@ -3272,7 +3329,7 @@
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -3283,7 +3340,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
         <v>83</v>
@@ -3298,12 +3355,12 @@
         <v>127</v>
       </c>
       <c r="M10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
         <v>85</v>
@@ -3318,12 +3375,12 @@
         <v>128</v>
       </c>
       <c r="M11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
         <v>117</v>
@@ -3335,12 +3392,12 @@
         <v>129</v>
       </c>
       <c r="M12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
@@ -3352,18 +3409,18 @@
         <v>143</v>
       </c>
       <c r="M13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
         <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
         <v>10</v>
@@ -3372,12 +3429,12 @@
         <v>130</v>
       </c>
       <c r="M14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
         <v>91</v>
@@ -3392,12 +3449,12 @@
         <v>131</v>
       </c>
       <c r="M15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
         <v>118</v>
@@ -3409,45 +3466,51 @@
         <v>132</v>
       </c>
       <c r="M16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
+        <v>208</v>
+      </c>
+      <c r="M17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" t="s">
+        <v>222</v>
+      </c>
+      <c r="L18" t="s">
+        <v>209</v>
+      </c>
+      <c r="M18" t="s">
         <v>210</v>
-      </c>
-      <c r="M17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="L18" t="s">
-        <v>211</v>
-      </c>
-      <c r="M18" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="231">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -956,19 +956,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>在庫数以下なら警告とか</t>
-    <rPh sb="0" eb="3">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その他</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
@@ -980,28 +967,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>正の値、同時にEBBOOKのbook_amountを変更する。book_amountの上限越えないように</t>
-    <rPh sb="0" eb="1">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>複合</t>
     <rPh sb="0" eb="2">
       <t>フクゴウ</t>
@@ -1163,10 +1128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>~/CollateralDetail/TextContent/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/TextType:03,text(詳説)</t>
     <rPh sb="18" eb="20">
       <t>ショウセツ</t>
@@ -1181,15 +1142,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>~/Audience/"AudienceCodeType":"22","AudienceCodeValue":"02"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>onix/summary/publisher</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>~/Contributor/"ContributorRole":["A01"],"PersonName"/content</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1237,6 +1190,116 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onix/DescriptiveDetail/Contributor/"ContributorRole":["A01"],"PersonName"/content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onix/DescriptiveDetail/Audience/"AudienceCodeType":"22","AudienceCodeValue":"02"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onix/CollateralDetail/TextContent/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫数、正の値</t>
+    <rPh sb="0" eb="3">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定価、正の値</t>
+    <rPh sb="0" eb="2">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンルid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誰が</t>
+    <rPh sb="0" eb="1">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どの本を　　openbdのデータ仕様　https://openbd.jp/spec/</t>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何冊カートに入れたか　　　在庫数以下なら警告とか</t>
+    <rPh sb="0" eb="2">
+      <t>ナンサツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー本文</t>
+    <rPh sb="4" eb="6">
+      <t>ホンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入荷数。正の値、同時にEBBOOKのbook_amountを変更する。book_amountの上限越えないように</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1293,12 +1356,23 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1310,7 +1384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1324,6 +1398,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1609,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1625,41 +1702,41 @@
     <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.25" customWidth="1"/>
-    <col min="12" max="12" width="61.4140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="88.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
+    <row r="2" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1747,38 +1824,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
+    <row r="10" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1799,7 +1876,7 @@
         <v>144</v>
       </c>
       <c r="J11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L11" t="s">
         <v>36</v>
@@ -1849,7 +1926,7 @@
         <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
@@ -1872,38 +1949,38 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
+    <row r="18" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1962,44 +2039,44 @@
         <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" t="s">
+    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2017,7 +2094,7 @@
         <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
         <v>157</v>
@@ -2034,38 +2111,38 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" t="s">
+    <row r="29" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2083,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L30" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2100,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="L31" t="s">
-        <v>100</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2111,10 +2188,13 @@
         <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J32" t="s">
         <v>157</v>
+      </c>
+      <c r="L32" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2222,61 +2302,61 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L42" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2294,10 +2374,13 @@
         <v>65</v>
       </c>
       <c r="G45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H45" t="s">
         <v>135</v>
+      </c>
+      <c r="L45" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2311,13 +2394,13 @@
         <v>168</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H46" t="s">
         <v>135</v>
       </c>
       <c r="L46" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2325,7 +2408,7 @@
         <v>152</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D47" t="s">
         <v>169</v>
@@ -2334,41 +2417,41 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2386,7 +2469,7 @@
         <v>65</v>
       </c>
       <c r="G50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H50" t="s">
         <v>136</v>
@@ -2403,7 +2486,7 @@
         <v>168</v>
       </c>
       <c r="G51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H51" t="s">
         <v>136</v>
@@ -2412,44 +2495,44 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" t="s">
+    <row r="53" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
         <v>79</v>
@@ -2458,7 +2541,7 @@
         <v>167</v>
       </c>
       <c r="E54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F54" t="s">
         <v>168</v>
@@ -2491,6 +2574,9 @@
       <c r="H56" t="s">
         <v>47</v>
       </c>
+      <c r="L56" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" t="s">
@@ -2520,38 +2606,38 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" t="s">
+    <row r="60" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2572,7 +2658,7 @@
         <v>144</v>
       </c>
       <c r="J61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2583,7 +2669,7 @@
         <v>82</v>
       </c>
       <c r="F62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H62" t="s">
         <v>80</v>
@@ -2608,7 +2694,7 @@
         <v>69</v>
       </c>
       <c r="F64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H64" t="s">
         <v>67</v>
@@ -2628,44 +2714,44 @@
         <v>78</v>
       </c>
       <c r="L65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" t="s">
+    <row r="67" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2677,10 +2763,10 @@
         <v>68</v>
       </c>
       <c r="F68" t="s">
+        <v>194</v>
+      </c>
+      <c r="G68" t="s">
         <v>196</v>
-      </c>
-      <c r="G68" t="s">
-        <v>198</v>
       </c>
       <c r="H68" t="s">
         <v>10</v>
@@ -2697,10 +2783,10 @@
         <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G69" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H69" t="s">
         <v>10</v>
@@ -2711,10 +2797,10 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D70" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H70" t="s">
         <v>135</v>
@@ -2724,38 +2810,38 @@
     <row r="71" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" t="s">
+    <row r="72" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2773,7 +2859,7 @@
         <v>30</v>
       </c>
       <c r="I73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J73" t="s">
         <v>99</v>
@@ -2804,7 +2890,7 @@
         <v>167</v>
       </c>
       <c r="H75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L75" t="s">
         <v>160</v>
@@ -2812,7 +2898,7 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D76" t="s">
         <v>74</v>
@@ -2821,7 +2907,7 @@
         <v>30</v>
       </c>
       <c r="L76" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2846,25 +2932,25 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3209,8 +3295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3284,16 +3370,16 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3318,7 +3404,7 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J8" t="s">
         <v>157</v>
@@ -3340,7 +3426,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
         <v>83</v>
@@ -3355,12 +3441,12 @@
         <v>127</v>
       </c>
       <c r="M10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
         <v>85</v>
@@ -3375,12 +3461,12 @@
         <v>128</v>
       </c>
       <c r="M11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
         <v>117</v>
@@ -3392,12 +3478,12 @@
         <v>129</v>
       </c>
       <c r="M12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
@@ -3409,12 +3495,12 @@
         <v>143</v>
       </c>
       <c r="M13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
         <v>90</v>
@@ -3429,12 +3515,12 @@
         <v>130</v>
       </c>
       <c r="M14" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
         <v>91</v>
@@ -3449,12 +3535,12 @@
         <v>131</v>
       </c>
       <c r="M15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
         <v>118</v>
@@ -3466,51 +3552,51 @@
         <v>132</v>
       </c>
       <c r="M16" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s">
+        <v>217</v>
+      </c>
+      <c r="L18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M18" t="s">
         <v>222</v>
-      </c>
-      <c r="L18" t="s">
-        <v>209</v>
-      </c>
-      <c r="M18" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/document/databaseinfo.xlsx
+++ b/document/databaseinfo.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="231">
   <si>
     <t>EBUSER</t>
     <phoneticPr fontId="1"/>
@@ -500,10 +500,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1302,6 +1298,9 @@
       <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://translate.google.com/translate?hl=ja&amp;sl=en&amp;u=https://fasterxml.github.io/jackson-databind/javadoc/2.2.0/com/fasterxml/jackson/databind/JsonNode.html&amp;prev=search</t>
   </si>
 </sst>
 </file>
@@ -1686,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1716,16 +1715,16 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>33</v>
@@ -1742,7 +1741,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1759,16 +1758,16 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
         <v>103</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" t="s">
         <v>104</v>
-      </c>
-      <c r="H4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1796,7 +1795,7 @@
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1835,16 +1834,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>32</v>
@@ -1861,10 +1860,10 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
         <v>68</v>
@@ -1873,10 +1872,10 @@
         <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L11" t="s">
         <v>36</v>
@@ -1923,16 +1922,16 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -1960,16 +1959,16 @@
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>32</v>
@@ -1986,13 +1985,13 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -2003,10 +2002,10 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H20" t="s">
         <v>10</v>
@@ -2017,37 +2016,37 @@
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
         <v>149</v>
       </c>
-      <c r="D22" t="s">
-        <v>150</v>
-      </c>
       <c r="H22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>1</v>
@@ -2056,16 +2055,16 @@
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>32</v>
@@ -2082,7 +2081,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
         <v>73</v>
@@ -2094,15 +2093,15 @@
         <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
         <v>72</v>
@@ -2122,16 +2121,16 @@
         <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>32</v>
@@ -2148,10 +2147,10 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" t="s">
         <v>74</v>
@@ -2160,24 +2159,24 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H31" t="s">
         <v>10</v>
       </c>
       <c r="L31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2188,13 +2187,13 @@
         <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2202,13 +2201,13 @@
         <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="L33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2222,7 +2221,7 @@
         <v>49</v>
       </c>
       <c r="L34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2236,18 +2235,18 @@
         <v>49</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
         <v>77</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2258,7 +2257,7 @@
         <v>88</v>
       </c>
       <c r="L37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2269,10 +2268,10 @@
         <v>77</v>
       </c>
       <c r="H38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2280,49 +2279,49 @@
         <v>91</v>
       </c>
       <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
         <v>92</v>
       </c>
-      <c r="H39" t="s">
-        <v>93</v>
-      </c>
       <c r="L39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" t="s">
         <v>216</v>
       </c>
-      <c r="D42" t="s">
-        <v>217</v>
-      </c>
       <c r="L42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2336,16 +2335,16 @@
         <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>32</v>
@@ -2362,25 +2361,25 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F45" t="s">
         <v>65</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2388,41 +2387,41 @@
         <v>79</v>
       </c>
       <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" t="s">
         <v>167</v>
       </c>
-      <c r="F46" t="s">
-        <v>168</v>
-      </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>1</v>
@@ -2431,16 +2430,16 @@
         <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>32</v>
@@ -2457,7 +2456,7 @@
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
         <v>48</v>
@@ -2469,10 +2468,10 @@
         <v>65</v>
       </c>
       <c r="G50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2480,24 +2479,24 @@
         <v>79</v>
       </c>
       <c r="D51" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51" t="s">
         <v>167</v>
       </c>
-      <c r="F51" t="s">
-        <v>168</v>
-      </c>
       <c r="G51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>1</v>
@@ -2506,16 +2505,16 @@
         <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>32</v>
@@ -2532,22 +2531,22 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C54" t="s">
         <v>79</v>
       </c>
       <c r="D54" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" t="s">
         <v>167</v>
       </c>
-      <c r="E54" t="s">
-        <v>189</v>
-      </c>
-      <c r="F54" t="s">
-        <v>168</v>
-      </c>
       <c r="L54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2575,7 +2574,7 @@
         <v>47</v>
       </c>
       <c r="L56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2617,16 +2616,16 @@
         <v>2</v>
       </c>
       <c r="E60" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="G60" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="H60" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>32</v>
@@ -2643,10 +2642,10 @@
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
         <v>76</v>
@@ -2655,10 +2654,10 @@
         <v>64</v>
       </c>
       <c r="I61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2669,7 +2668,7 @@
         <v>82</v>
       </c>
       <c r="F62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H62" t="s">
         <v>80</v>
@@ -2688,13 +2687,13 @@
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
         <v>69</v>
       </c>
       <c r="F64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H64" t="s">
         <v>67</v>
@@ -2714,7 +2713,7 @@
         <v>78</v>
       </c>
       <c r="L65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2722,7 +2721,7 @@
     </row>
     <row r="67" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>1</v>
@@ -2731,16 +2730,16 @@
         <v>2</v>
       </c>
       <c r="E67" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="H67" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>32</v>
@@ -2757,16 +2756,16 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s">
         <v>68</v>
       </c>
       <c r="F68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H68" t="s">
         <v>10</v>
@@ -2783,27 +2782,27 @@
         <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H69" t="s">
         <v>10</v>
       </c>
       <c r="L69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I70" s="3"/>
     </row>
@@ -2812,7 +2811,7 @@
     </row>
     <row r="72" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>1</v>
@@ -2821,16 +2820,16 @@
         <v>2</v>
       </c>
       <c r="E72" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="H72" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>32</v>
@@ -2847,30 +2846,30 @@
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
       </c>
       <c r="I73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
@@ -2879,7 +2878,7 @@
         <v>31</v>
       </c>
       <c r="L74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2887,18 +2886,18 @@
         <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D76" t="s">
         <v>74</v>
@@ -2907,7 +2906,7 @@
         <v>30</v>
       </c>
       <c r="L76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2932,25 +2931,25 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3001,16 +3000,16 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
         <v>138</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>139</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>140</v>
-      </c>
-      <c r="H2" t="s">
-        <v>141</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
@@ -3027,10 +3026,10 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -3039,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -3047,10 +3046,10 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -3064,13 +3063,13 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -3084,7 +3083,7 @@
         <v>49</v>
       </c>
       <c r="L6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -3098,18 +3097,18 @@
         <v>49</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -3120,7 +3119,7 @@
         <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -3134,7 +3133,7 @@
         <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -3148,23 +3147,23 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -3173,16 +3172,16 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" t="s">
         <v>138</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>139</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>140</v>
-      </c>
-      <c r="H14" t="s">
-        <v>141</v>
       </c>
       <c r="I14" t="s">
         <v>32</v>
@@ -3199,38 +3198,38 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
         <v>109</v>
-      </c>
-      <c r="D15" t="s">
-        <v>110</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="s">
         <v>114</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
       </c>
       <c r="H16" t="s">
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -3239,16 +3238,16 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" t="s">
         <v>138</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>139</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>140</v>
-      </c>
-      <c r="H18" t="s">
-        <v>141</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -3265,24 +3264,24 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
         <v>109</v>
       </c>
-      <c r="D19" t="s">
+      <c r="J19" t="s">
         <v>110</v>
-      </c>
-      <c r="J19" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3295,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3313,6 +3312,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>15</v>
@@ -3324,16 +3328,16 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" t="s">
         <v>138</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>139</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>140</v>
-      </c>
-      <c r="H4" t="s">
-        <v>141</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
@@ -3350,10 +3354,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
         <v>74</v>
@@ -3362,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3370,30 +3374,30 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" t="s">
         <v>213</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
         <v>214</v>
       </c>
-      <c r="L6" t="s">
-        <v>215</v>
-      </c>
       <c r="M6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3404,10 +3408,10 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3415,18 +3419,18 @@
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
         <v>83</v>
@@ -3438,15 +3442,15 @@
         <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
         <v>85</v>
@@ -3458,32 +3462,32 @@
         <v>49</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
         <v>77</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
@@ -3492,15 +3496,15 @@
         <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
         <v>90</v>
@@ -3512,15 +3516,15 @@
         <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
         <v>91</v>
@@ -3532,79 +3536,80 @@
         <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" t="s">
         <v>216</v>
       </c>
-      <c r="D18" t="s">
-        <v>217</v>
-      </c>
       <c r="L18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>